--- a/training set1.xlsx
+++ b/training set1.xlsx
@@ -50,22 +50,22 @@
     <t>LVMWT</t>
   </si>
   <si>
-    <t>PM_S(0,4)SumAverg</t>
+    <t>Mid _S(0,4)SumAverg</t>
   </si>
   <si>
-    <t>PM_135dr_LngREmph</t>
+    <t>Mid _135dr_LngREmph</t>
   </si>
   <si>
-    <t>APEX_S(1,-1)SumOfSqs</t>
+    <t>Apical_S(1,-1)SumOfSqs</t>
   </si>
   <si>
-    <t>APEX_S(5,-5)SumOfSqs</t>
+    <t>Apical_S(5,-5)SumOfSqs</t>
   </si>
   <si>
-    <t>APEX_WavEnHH_s-4</t>
+    <t>Apical_WavEnHH_s-4</t>
   </si>
   <si>
-    <t>APEX_WavEnHH_s-5</t>
+    <t>Apical_WavEnHH_s-5</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/training set1.xlsx
+++ b/training set1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="21996" windowHeight="10404"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>number</t>
   </si>
@@ -50,22 +50,7 @@
     <t>LVMWT</t>
   </si>
   <si>
-    <t>Mid _S(0,4)SumAverg</t>
-  </si>
-  <si>
-    <t>Mid _135dr_LngREmph</t>
-  </si>
-  <si>
-    <t>Apical_S(1,-1)SumOfSqs</t>
-  </si>
-  <si>
-    <t>Apical_S(5,-5)SumOfSqs</t>
-  </si>
-  <si>
-    <t>Apical_WavEnHH_s-4</t>
-  </si>
-  <si>
-    <t>Apical_WavEnHH_s-5</t>
+    <t>Radiomics Score</t>
   </si>
 </sst>
 </file>
@@ -88,13 +73,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -103,6 +81,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -267,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,48 +262,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +599,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,16 +623,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -698,132 +641,111 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1349,19 +1271,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="13" width="10.6666666666667" style="2"/>
+    <col min="8" max="8" width="14.1111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1386,23 +1308,8 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -1425,25 +1332,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="2">
-        <v>64.158493</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.7787943</v>
-      </c>
-      <c r="J2" s="2">
-        <v>106.40906</v>
-      </c>
-      <c r="K2" s="2">
-        <v>106.39265</v>
-      </c>
-      <c r="L2" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M2" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.208615051877863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -1466,25 +1358,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="2">
-        <v>63.670513</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.255769</v>
-      </c>
-      <c r="J3" s="2">
-        <v>108.36101</v>
-      </c>
-      <c r="K3" s="2">
-        <v>107.09695</v>
-      </c>
-      <c r="L3" s="2">
-        <v>37.852</v>
-      </c>
-      <c r="M3" s="2">
-        <v>59.955339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-0.140776252590691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -1506,26 +1383,11 @@
       <c r="G4" s="6">
         <v>19</v>
       </c>
-      <c r="H4" s="9">
-        <v>64.195956</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2.5631796</v>
-      </c>
-      <c r="J4" s="9">
-        <v>104.68771</v>
-      </c>
-      <c r="K4" s="9">
-        <v>100.35024</v>
-      </c>
-      <c r="L4" s="9">
-        <v>34.959453</v>
-      </c>
-      <c r="M4" s="9">
-        <v>50.242955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="H4" s="2">
+        <v>-0.132823962855478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1548,25 +1410,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2">
-        <v>64.20849</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.5273443</v>
-      </c>
-      <c r="J5" s="2">
-        <v>108.64165</v>
-      </c>
-      <c r="K5" s="2">
-        <v>104.15991</v>
-      </c>
-      <c r="L5" s="2">
-        <v>33.631257</v>
-      </c>
-      <c r="M5" s="2">
-        <v>44.302713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-0.0572308420794439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -1589,25 +1436,10 @@
         <v>27</v>
       </c>
       <c r="H6" s="2">
-        <v>64.326619</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.1929733</v>
-      </c>
-      <c r="J6" s="2">
-        <v>106.64569</v>
-      </c>
-      <c r="K6" s="2">
-        <v>107.79448</v>
-      </c>
-      <c r="L6" s="2">
-        <v>19.405345</v>
-      </c>
-      <c r="M6" s="2">
-        <v>15.242749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.375664286257821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -1630,25 +1462,10 @@
         <v>21</v>
       </c>
       <c r="H7" s="2">
-        <v>63.806408</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.0198452</v>
-      </c>
-      <c r="J7" s="2">
-        <v>103.84498</v>
-      </c>
-      <c r="K7" s="2">
-        <v>102.72336</v>
-      </c>
-      <c r="L7" s="2">
-        <v>27.373949</v>
-      </c>
-      <c r="M7" s="2">
-        <v>42.351646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.711176142165388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -1671,25 +1488,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="2">
-        <v>64.061242</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2.7487939</v>
-      </c>
-      <c r="J8" s="2">
-        <v>105.49255</v>
-      </c>
-      <c r="K8" s="2">
-        <v>103.08832</v>
-      </c>
-      <c r="L8" s="2">
-        <v>24.440679</v>
-      </c>
-      <c r="M8" s="2">
-        <v>37.77115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.593589594904009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -1712,25 +1514,10 @@
         <v>17</v>
       </c>
       <c r="H9" s="2">
-        <v>64.085113</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.4510408</v>
-      </c>
-      <c r="J9" s="2">
-        <v>110.6072</v>
-      </c>
-      <c r="K9" s="2">
-        <v>110.52994</v>
-      </c>
-      <c r="L9" s="2">
-        <v>19.3178</v>
-      </c>
-      <c r="M9" s="2">
-        <v>36.192593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-0.341074689273623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -1753,25 +1540,10 @@
         <v>24</v>
       </c>
       <c r="H10" s="2">
-        <v>64.462783</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.6504517</v>
-      </c>
-      <c r="J10" s="2">
-        <v>110.80702</v>
-      </c>
-      <c r="K10" s="2">
-        <v>110.53182</v>
-      </c>
-      <c r="L10" s="2">
-        <v>16.015142</v>
-      </c>
-      <c r="M10" s="2">
-        <v>20.48016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>-0.144139216421488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1794,25 +1566,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="2">
-        <v>64.146113</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.8001678</v>
-      </c>
-      <c r="J11" s="2">
-        <v>110.5023</v>
-      </c>
-      <c r="K11" s="2">
-        <v>107.52347</v>
-      </c>
-      <c r="L11" s="2">
-        <v>14.928179</v>
-      </c>
-      <c r="M11" s="2">
-        <v>23.466192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>-0.12822033278755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -1835,25 +1592,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="2">
-        <v>64.061242</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J12" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K12" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L12" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M12" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>-0.138669032550913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -1876,25 +1618,10 @@
         <v>19</v>
       </c>
       <c r="H13" s="2">
-        <v>63.839828</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.3464988</v>
-      </c>
-      <c r="J13" s="2">
-        <v>110.6167</v>
-      </c>
-      <c r="K13" s="2">
-        <v>110.16996</v>
-      </c>
-      <c r="L13" s="2">
-        <v>38.496671</v>
-      </c>
-      <c r="M13" s="2">
-        <v>43.120311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>-0.601494549648999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -1917,25 +1644,10 @@
         <v>15</v>
       </c>
       <c r="H14" s="2">
-        <v>64.335703</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.4562409</v>
-      </c>
-      <c r="J14" s="2">
-        <v>110.06294</v>
-      </c>
-      <c r="K14" s="2">
-        <v>107.57893</v>
-      </c>
-      <c r="L14" s="2">
-        <v>32.771044</v>
-      </c>
-      <c r="M14" s="2">
-        <v>62.740743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>-0.220695844296646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -1958,25 +1670,10 @@
         <v>18</v>
       </c>
       <c r="H15" s="2">
-        <v>63.987932</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.7789826</v>
-      </c>
-      <c r="J15" s="2">
-        <v>107.60066</v>
-      </c>
-      <c r="K15" s="2">
-        <v>108.45945</v>
-      </c>
-      <c r="L15" s="2">
-        <v>47.983533</v>
-      </c>
-      <c r="M15" s="2">
-        <v>43.359199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>-0.1767320871308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -1999,25 +1696,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="2">
-        <v>64.059596</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1.3206878</v>
-      </c>
-      <c r="J16" s="2">
-        <v>111.12992</v>
-      </c>
-      <c r="K16" s="2">
-        <v>110.86999</v>
-      </c>
-      <c r="L16" s="2">
-        <v>44.40486</v>
-      </c>
-      <c r="M16" s="2">
-        <v>47.332642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>-0.63079422459162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2040,25 +1722,10 @@
         <v>18</v>
       </c>
       <c r="H17" s="2">
-        <v>64.210409</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.3993698</v>
-      </c>
-      <c r="J17" s="2">
-        <v>110.13959</v>
-      </c>
-      <c r="K17" s="2">
-        <v>111.78555</v>
-      </c>
-      <c r="L17" s="2">
-        <v>31.748895</v>
-      </c>
-      <c r="M17" s="2">
-        <v>38.600291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>-0.380168450791239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2081,25 +1748,10 @@
         <v>18</v>
       </c>
       <c r="H18" s="2">
-        <v>64.321578</v>
-      </c>
-      <c r="I18" s="2">
-        <v>2.0661247</v>
-      </c>
-      <c r="J18" s="2">
-        <v>109.69992</v>
-      </c>
-      <c r="K18" s="2">
-        <v>109.61644</v>
-      </c>
-      <c r="L18" s="2">
-        <v>14.640005</v>
-      </c>
-      <c r="M18" s="2">
-        <v>17.884665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.0429880148712285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2122,25 +1774,10 @@
         <v>19</v>
       </c>
       <c r="H19" s="2">
-        <v>64.22157</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.9750089</v>
-      </c>
-      <c r="J19" s="2">
-        <v>105.86352</v>
-      </c>
-      <c r="K19" s="2">
-        <v>97.899086</v>
-      </c>
-      <c r="L19" s="2">
-        <v>19.25846</v>
-      </c>
-      <c r="M19" s="2">
-        <v>24.043632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.564190694781657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2163,25 +1800,10 @@
         <v>28</v>
       </c>
       <c r="H20" s="2">
-        <v>63.872892</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1.9673646</v>
-      </c>
-      <c r="J20" s="2">
-        <v>106.86868</v>
-      </c>
-      <c r="K20" s="2">
-        <v>105.24746</v>
-      </c>
-      <c r="L20" s="2">
-        <v>25.29458</v>
-      </c>
-      <c r="M20" s="2">
-        <v>31.992338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.133896221431303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>23</v>
       </c>
@@ -2204,25 +1826,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>64.463554</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J21" s="2">
-        <v>111.68092</v>
-      </c>
-      <c r="K21" s="2">
-        <v>111.14036</v>
-      </c>
-      <c r="L21" s="2">
-        <v>29.750897</v>
-      </c>
-      <c r="M21" s="2">
-        <v>45.441574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>-0.271549306398865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>25</v>
       </c>
@@ -2245,25 +1852,10 @@
         <v>24</v>
       </c>
       <c r="H22" s="2">
-        <v>64.267401</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.4804025</v>
-      </c>
-      <c r="J22" s="2">
-        <v>109.9888</v>
-      </c>
-      <c r="K22" s="2">
-        <v>108.10752</v>
-      </c>
-      <c r="L22" s="2">
-        <v>24.188709</v>
-      </c>
-      <c r="M22" s="2">
-        <v>33.779532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>-0.190854956381213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>26</v>
       </c>
@@ -2286,25 +1878,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="2">
-        <v>63.758124</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1.7040426</v>
-      </c>
-      <c r="J23" s="2">
-        <v>110.08497</v>
-      </c>
-      <c r="K23" s="2">
-        <v>109.79131</v>
-      </c>
-      <c r="L23" s="2">
-        <v>34.684469</v>
-      </c>
-      <c r="M23" s="2">
-        <v>66.161786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>-0.443716525975474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>27</v>
       </c>
@@ -2327,25 +1904,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="2">
-        <v>64.222015</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2.2765768</v>
-      </c>
-      <c r="J24" s="2">
-        <v>107.25568</v>
-      </c>
-      <c r="K24" s="2">
-        <v>105.69023</v>
-      </c>
-      <c r="L24" s="2">
-        <v>34.14712</v>
-      </c>
-      <c r="M24" s="2">
-        <v>41.437077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.237147109366322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>28</v>
       </c>
@@ -2368,25 +1930,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="2">
-        <v>63.50734</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1.5135378</v>
-      </c>
-      <c r="J25" s="2">
-        <v>109.98129</v>
-      </c>
-      <c r="K25" s="2">
-        <v>109.0359</v>
-      </c>
-      <c r="L25" s="2">
-        <v>27.518958</v>
-      </c>
-      <c r="M25" s="2">
-        <v>26.857777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>-0.525408843871526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>29</v>
       </c>
@@ -2408,26 +1955,11 @@
       <c r="G26" s="6">
         <v>23</v>
       </c>
-      <c r="H26" s="10">
-        <v>64.037175</v>
-      </c>
-      <c r="I26" s="10">
-        <v>2.0525298</v>
-      </c>
-      <c r="J26" s="10">
-        <v>108.74824</v>
-      </c>
-      <c r="K26" s="10">
-        <v>104.89957</v>
-      </c>
-      <c r="L26" s="10">
-        <v>22.639049</v>
-      </c>
-      <c r="M26" s="10">
-        <v>28.97672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="H26" s="2">
+        <v>-0.416273874255605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>31</v>
       </c>
@@ -2450,25 +1982,10 @@
         <v>21</v>
       </c>
       <c r="H27" s="2">
-        <v>64.302126</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3.3324445</v>
-      </c>
-      <c r="J27" s="2">
-        <v>110.01091</v>
-      </c>
-      <c r="K27" s="2">
-        <v>110.21971</v>
-      </c>
-      <c r="L27" s="2">
-        <v>18.521018</v>
-      </c>
-      <c r="M27" s="2">
-        <v>27.152025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.287882975132945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>32</v>
       </c>
@@ -2491,25 +2008,10 @@
         <v>19</v>
       </c>
       <c r="H28" s="2">
-        <v>64.505471</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1.5048432</v>
-      </c>
-      <c r="J28" s="2">
-        <v>110.74696</v>
-      </c>
-      <c r="K28" s="2">
-        <v>111.59371</v>
-      </c>
-      <c r="L28" s="2">
-        <v>37.328667</v>
-      </c>
-      <c r="M28" s="2">
-        <v>74.807235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>-0.321719175544058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>33</v>
       </c>
@@ -2532,25 +2034,10 @@
         <v>15</v>
       </c>
       <c r="H29" s="2">
-        <v>64.418701</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.8837203</v>
-      </c>
-      <c r="J29" s="2">
-        <v>111.42818</v>
-      </c>
-      <c r="K29" s="2">
-        <v>111.45731</v>
-      </c>
-      <c r="L29" s="2">
-        <v>19.872894</v>
-      </c>
-      <c r="M29" s="2">
-        <v>38.341194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>-0.204132733607529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>34</v>
       </c>
@@ -2573,25 +2060,10 @@
         <v>19</v>
       </c>
       <c r="H30" s="2">
-        <v>64.067646</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.3289936</v>
-      </c>
-      <c r="J30" s="2">
-        <v>107.56535</v>
-      </c>
-      <c r="K30" s="2">
-        <v>106.86001</v>
-      </c>
-      <c r="L30" s="2">
-        <v>26.528161</v>
-      </c>
-      <c r="M30" s="2">
-        <v>36.071536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.192403994727254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>36</v>
       </c>
@@ -2614,25 +2086,10 @@
         <v>21</v>
       </c>
       <c r="H31" s="2">
-        <v>64.119002</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4.8604069</v>
-      </c>
-      <c r="J31" s="2">
-        <v>106.60216</v>
-      </c>
-      <c r="K31" s="2">
-        <v>103.76301</v>
-      </c>
-      <c r="L31" s="2">
-        <v>18.630042</v>
-      </c>
-      <c r="M31" s="2">
-        <v>45.404722</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1.07737738097136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>37</v>
       </c>
@@ -2655,25 +2112,10 @@
         <v>19</v>
       </c>
       <c r="H32" s="2">
-        <v>63.532293</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1.4072405</v>
-      </c>
-      <c r="J32" s="2">
-        <v>109.25403</v>
-      </c>
-      <c r="K32" s="2">
-        <v>107.34907</v>
-      </c>
-      <c r="L32" s="2">
-        <v>42.607084</v>
-      </c>
-      <c r="M32" s="2">
-        <v>46.365872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>-0.544835529028971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="6">
         <v>38</v>
       </c>
@@ -2696,25 +2138,10 @@
         <v>16</v>
       </c>
       <c r="H33" s="2">
-        <v>63.630447</v>
-      </c>
-      <c r="I33" s="2">
-        <v>2.2344373</v>
-      </c>
-      <c r="J33" s="2">
-        <v>107.13193</v>
-      </c>
-      <c r="K33" s="2">
-        <v>107.26045</v>
-      </c>
-      <c r="L33" s="2">
-        <v>33.688167</v>
-      </c>
-      <c r="M33" s="2">
-        <v>34.101756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>-0.0236766891605662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>39</v>
       </c>
@@ -2737,25 +2164,10 @@
         <v>24</v>
       </c>
       <c r="H34" s="2">
-        <v>64.111638</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.4688913</v>
-      </c>
-      <c r="J34" s="2">
-        <v>109.31764</v>
-      </c>
-      <c r="K34" s="2">
-        <v>107.22588</v>
-      </c>
-      <c r="L34" s="2">
-        <v>31.962902</v>
-      </c>
-      <c r="M34" s="2">
-        <v>38.790242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>-0.228421287566839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>41</v>
       </c>
@@ -2778,25 +2190,10 @@
         <v>19</v>
       </c>
       <c r="H35" s="2">
-        <v>64.144764</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.5769171</v>
-      </c>
-      <c r="J35" s="2">
-        <v>111.57581</v>
-      </c>
-      <c r="K35" s="2">
-        <v>111.48655</v>
-      </c>
-      <c r="L35" s="2">
-        <v>31.806604</v>
-      </c>
-      <c r="M35" s="2">
-        <v>53.45775</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>-0.489292042830011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>42</v>
       </c>
@@ -2819,25 +2216,10 @@
         <v>19</v>
       </c>
       <c r="H36" s="2">
-        <v>64.113656</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2.0419788</v>
-      </c>
-      <c r="J36" s="2">
-        <v>107.44356</v>
-      </c>
-      <c r="K36" s="2">
-        <v>107.19764</v>
-      </c>
-      <c r="L36" s="2">
-        <v>24.865779</v>
-      </c>
-      <c r="M36" s="2">
-        <v>50.016719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.161156711917215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>44</v>
       </c>
@@ -2860,25 +2242,10 @@
         <v>35</v>
       </c>
       <c r="H37" s="2">
-        <v>63.781205</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1.6524725</v>
-      </c>
-      <c r="J37" s="2">
-        <v>110.52214</v>
-      </c>
-      <c r="K37" s="2">
-        <v>108.9527</v>
-      </c>
-      <c r="L37" s="2">
-        <v>39.841853</v>
-      </c>
-      <c r="M37" s="2">
-        <v>39.371618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>-0.52436394651694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>45</v>
       </c>
@@ -2901,25 +2268,10 @@
         <v>19</v>
       </c>
       <c r="H38" s="2">
-        <v>63.977395</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1.7417888</v>
-      </c>
-      <c r="J38" s="2">
-        <v>110.47182</v>
-      </c>
-      <c r="K38" s="2">
-        <v>107.70478</v>
-      </c>
-      <c r="L38" s="2">
-        <v>30.763374</v>
-      </c>
-      <c r="M38" s="2">
-        <v>48.455031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>-0.3209570512482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>46</v>
       </c>
@@ -2942,25 +2294,10 @@
         <v>15</v>
       </c>
       <c r="H39" s="2">
-        <v>64.046393</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J39" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K39" s="2">
-        <v>100.46843</v>
-      </c>
-      <c r="L39" s="2">
-        <v>17.150395</v>
-      </c>
-      <c r="M39" s="2">
-        <v>28.174626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.0696310035607683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>47</v>
       </c>
@@ -2983,25 +2320,10 @@
         <v>15</v>
       </c>
       <c r="H40" s="2">
-        <v>64.530003</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1.796614</v>
-      </c>
-      <c r="J40" s="2">
-        <v>110.22212</v>
-      </c>
-      <c r="K40" s="2">
-        <v>108.8881</v>
-      </c>
-      <c r="L40" s="2">
-        <v>14.40651</v>
-      </c>
-      <c r="M40" s="2">
-        <v>17.427741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.0212582254003434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>48</v>
       </c>
@@ -3024,25 +2346,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="2">
-        <v>63.908672</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2.1506894</v>
-      </c>
-      <c r="J41" s="2">
-        <v>108.05682</v>
-      </c>
-      <c r="K41" s="2">
-        <v>104.20268</v>
-      </c>
-      <c r="L41" s="2">
-        <v>28.963211</v>
-      </c>
-      <c r="M41" s="2">
-        <v>49.635844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.0787067604673731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>49</v>
       </c>
@@ -3065,25 +2372,10 @@
         <v>22</v>
       </c>
       <c r="H42" s="2">
-        <v>63.858562</v>
-      </c>
-      <c r="I42" s="2">
-        <v>2.8508672</v>
-      </c>
-      <c r="J42" s="2">
-        <v>110.08222</v>
-      </c>
-      <c r="K42" s="2">
-        <v>108.49103</v>
-      </c>
-      <c r="L42" s="2">
-        <v>24.911005</v>
-      </c>
-      <c r="M42" s="2">
-        <v>13.665132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>-0.0334299146025687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>50</v>
       </c>
@@ -3106,25 +2398,10 @@
         <v>23</v>
       </c>
       <c r="H43" s="2">
-        <v>63.971013</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1.586852</v>
-      </c>
-      <c r="J43" s="2">
-        <v>108.83372</v>
-      </c>
-      <c r="K43" s="2">
-        <v>105.94111</v>
-      </c>
-      <c r="L43" s="2">
-        <v>27.432062</v>
-      </c>
-      <c r="M43" s="2">
-        <v>24.712635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>-0.15052607414002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>52</v>
       </c>
@@ -3147,25 +2424,10 @@
         <v>15</v>
       </c>
       <c r="H44" s="2">
-        <v>64.107503</v>
-      </c>
-      <c r="I44" s="2">
-        <v>2.8206277</v>
-      </c>
-      <c r="J44" s="2">
-        <v>110.35258</v>
-      </c>
-      <c r="K44" s="2">
-        <v>107.85422</v>
-      </c>
-      <c r="L44" s="2">
-        <v>23.288894</v>
-      </c>
-      <c r="M44" s="2">
-        <v>16.363229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.0561214177386816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>53</v>
       </c>
@@ -3188,25 +2450,10 @@
         <v>23</v>
       </c>
       <c r="H45" s="2">
-        <v>63.526552</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1.9972452</v>
-      </c>
-      <c r="J45" s="2">
-        <v>107.59215</v>
-      </c>
-      <c r="K45" s="2">
-        <v>103.03749</v>
-      </c>
-      <c r="L45" s="2">
-        <v>23.178858</v>
-      </c>
-      <c r="M45" s="2">
-        <v>23.630953</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>-0.0060306404244389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>54</v>
       </c>
@@ -3229,25 +2476,10 @@
         <v>16</v>
       </c>
       <c r="H46" s="2">
-        <v>64.205979</v>
-      </c>
-      <c r="I46" s="2">
-        <v>2.5564169</v>
-      </c>
-      <c r="J46" s="2">
-        <v>109.65402</v>
-      </c>
-      <c r="K46" s="2">
-        <v>107.34736</v>
-      </c>
-      <c r="L46" s="2">
-        <v>33.766948</v>
-      </c>
-      <c r="M46" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.0333938524072244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>55</v>
       </c>
@@ -3270,25 +2502,10 @@
         <v>23</v>
       </c>
       <c r="H47" s="2">
-        <v>64.521711</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1.4268249</v>
-      </c>
-      <c r="J47" s="2">
-        <v>109.78827</v>
-      </c>
-      <c r="K47" s="2">
-        <v>109.31371</v>
-      </c>
-      <c r="L47" s="2">
-        <v>29.562941</v>
-      </c>
-      <c r="M47" s="2">
-        <v>41.251079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-0.148811242582118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>56</v>
       </c>
@@ -3311,25 +2528,10 @@
         <v>15</v>
       </c>
       <c r="H48" s="2">
-        <v>63.483648</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2.6874154</v>
-      </c>
-      <c r="J48" s="2">
-        <v>106.00252</v>
-      </c>
-      <c r="K48" s="2">
-        <v>103.02201</v>
-      </c>
-      <c r="L48" s="2">
-        <v>31.652871</v>
-      </c>
-      <c r="M48" s="2">
-        <v>26.955807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.244384098540917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>57</v>
       </c>
@@ -3352,25 +2554,10 @@
         <v>31</v>
       </c>
       <c r="H49" s="2">
-        <v>63.625987</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J49" s="2">
-        <v>107.6568</v>
-      </c>
-      <c r="K49" s="2">
-        <v>101.83151</v>
-      </c>
-      <c r="L49" s="2">
-        <v>27.977121</v>
-      </c>
-      <c r="M49" s="2">
-        <v>41.408436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>-0.000689261400867943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>58</v>
       </c>
@@ -3393,25 +2580,10 @@
         <v>15</v>
       </c>
       <c r="H50" s="2">
-        <v>64.380901</v>
-      </c>
-      <c r="I50" s="2">
-        <v>2.508533</v>
-      </c>
-      <c r="J50" s="2">
-        <v>110.35518</v>
-      </c>
-      <c r="K50" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L50" s="2">
-        <v>22.535785</v>
-      </c>
-      <c r="M50" s="2">
-        <v>21.960019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.100286672448942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>60</v>
       </c>
@@ -3434,25 +2606,10 @@
         <v>19</v>
       </c>
       <c r="H51" s="2">
-        <v>64.053387</v>
-      </c>
-      <c r="I51" s="2">
-        <v>2.2517817</v>
-      </c>
-      <c r="J51" s="2">
-        <v>107.77664</v>
-      </c>
-      <c r="K51" s="2">
-        <v>104.05117</v>
-      </c>
-      <c r="L51" s="2">
-        <v>27.466224</v>
-      </c>
-      <c r="M51" s="2">
-        <v>51.534891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.203588922010464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>61</v>
       </c>
@@ -3475,25 +2632,10 @@
         <v>15</v>
       </c>
       <c r="H52" s="2">
-        <v>63.718916</v>
-      </c>
-      <c r="I52" s="2">
-        <v>2.3274075</v>
-      </c>
-      <c r="J52" s="2">
-        <v>104.44504</v>
-      </c>
-      <c r="K52" s="2">
-        <v>99.117722</v>
-      </c>
-      <c r="L52" s="2">
-        <v>21.686791</v>
-      </c>
-      <c r="M52" s="2">
-        <v>25.80719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.553628277036439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>63</v>
       </c>
@@ -3516,25 +2658,10 @@
         <v>15</v>
       </c>
       <c r="H53" s="2">
-        <v>63.806892</v>
-      </c>
-      <c r="I53" s="2">
-        <v>2.2876335</v>
-      </c>
-      <c r="J53" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K53" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L53" s="2">
-        <v>23.168134</v>
-      </c>
-      <c r="M53" s="2">
-        <v>30.171583</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>-0.115954266672255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="6">
         <v>65</v>
       </c>
@@ -3556,26 +2683,11 @@
       <c r="G54" s="6">
         <v>15</v>
       </c>
-      <c r="H54" s="11">
-        <v>63.604839</v>
-      </c>
-      <c r="I54" s="11">
-        <v>1.9678706</v>
-      </c>
-      <c r="J54" s="11">
-        <v>108.86559</v>
-      </c>
-      <c r="K54" s="11">
-        <v>103.59617</v>
-      </c>
-      <c r="L54" s="11">
-        <v>19.133248</v>
-      </c>
-      <c r="M54" s="11">
-        <v>17.939195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="H54" s="2">
+        <v>-0.390413756787445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="6">
         <v>66</v>
       </c>
@@ -3598,25 +2710,10 @@
         <v>28</v>
       </c>
       <c r="H55" s="2">
-        <v>64.029785</v>
-      </c>
-      <c r="I55" s="2">
-        <v>2.7146891</v>
-      </c>
-      <c r="J55" s="2">
-        <v>104.92194</v>
-      </c>
-      <c r="K55" s="2">
-        <v>104.68742</v>
-      </c>
-      <c r="L55" s="2">
-        <v>23.492495</v>
-      </c>
-      <c r="M55" s="2">
-        <v>25.321348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.597727000327208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="6">
         <v>67</v>
       </c>
@@ -3639,25 +2736,10 @@
         <v>32</v>
       </c>
       <c r="H56" s="2">
-        <v>63.826711</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1.9443793</v>
-      </c>
-      <c r="J56" s="2">
-        <v>102.31942</v>
-      </c>
-      <c r="K56" s="2">
-        <v>97.352701</v>
-      </c>
-      <c r="L56" s="2">
-        <v>24.795485</v>
-      </c>
-      <c r="M56" s="2">
-        <v>36.097482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.723113263474401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="6">
         <v>68</v>
       </c>
@@ -3680,25 +2762,10 @@
         <v>19</v>
       </c>
       <c r="H57" s="2">
-        <v>63.943583</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1.7780284</v>
-      </c>
-      <c r="J57" s="2">
-        <v>105.58688</v>
-      </c>
-      <c r="K57" s="2">
-        <v>101.33037</v>
-      </c>
-      <c r="L57" s="2">
-        <v>27.075855</v>
-      </c>
-      <c r="M57" s="2">
-        <v>45.88447</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.31146235922757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="6">
         <v>69</v>
       </c>
@@ -3721,25 +2788,10 @@
         <v>17</v>
       </c>
       <c r="H58" s="2">
-        <v>63.962421</v>
-      </c>
-      <c r="I58" s="2">
-        <v>2.4361659</v>
-      </c>
-      <c r="J58" s="2">
-        <v>110.01431</v>
-      </c>
-      <c r="K58" s="2">
-        <v>111.44264</v>
-      </c>
-      <c r="L58" s="2">
-        <v>46.223853</v>
-      </c>
-      <c r="M58" s="2">
-        <v>56.801564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>-0.298232473949486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="6">
         <v>71</v>
       </c>
@@ -3762,25 +2814,10 @@
         <v>20</v>
       </c>
       <c r="H59" s="2">
-        <v>64.007185</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1.7243132</v>
-      </c>
-      <c r="J59" s="2">
-        <v>109.49014</v>
-      </c>
-      <c r="K59" s="2">
-        <v>106.26642</v>
-      </c>
-      <c r="L59" s="2">
-        <v>32.914778</v>
-      </c>
-      <c r="M59" s="2">
-        <v>78.130996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>-0.192237315917107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="6">
         <v>72</v>
       </c>
@@ -3803,25 +2840,10 @@
         <v>23</v>
       </c>
       <c r="H60" s="2">
-        <v>63.752751</v>
-      </c>
-      <c r="I60" s="2">
-        <v>2.3836442</v>
-      </c>
-      <c r="J60" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K60" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L60" s="2">
-        <v>32.452147</v>
-      </c>
-      <c r="M60" s="2">
-        <v>29.756032</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>-0.184373319222914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="6">
         <v>73</v>
       </c>
@@ -3844,25 +2866,10 @@
         <v>15</v>
       </c>
       <c r="H61" s="2">
-        <v>63.912441</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1.6619344</v>
-      </c>
-      <c r="J61" s="2">
-        <v>109.81603</v>
-      </c>
-      <c r="K61" s="2">
-        <v>108.25445</v>
-      </c>
-      <c r="L61" s="2">
-        <v>24.704201</v>
-      </c>
-      <c r="M61" s="2">
-        <v>24.652153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>-0.2769788860753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="6">
         <v>74</v>
       </c>
@@ -3885,25 +2892,10 @@
         <v>23</v>
       </c>
       <c r="H62" s="2">
-        <v>64.158501</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1.3243968</v>
-      </c>
-      <c r="J62" s="2">
-        <v>107.13407</v>
-      </c>
-      <c r="K62" s="2">
-        <v>99.915281</v>
-      </c>
-      <c r="L62" s="2">
-        <v>33.791584</v>
-      </c>
-      <c r="M62" s="2">
-        <v>19.824255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.0950405080766503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="6">
         <v>75</v>
       </c>
@@ -3925,26 +2917,11 @@
       <c r="G63" s="6">
         <v>21</v>
       </c>
-      <c r="H63" s="12">
-        <v>64.125792</v>
-      </c>
-      <c r="I63" s="12">
-        <v>1.934902</v>
-      </c>
-      <c r="J63" s="12">
-        <v>109.33528</v>
-      </c>
-      <c r="K63" s="12">
-        <v>110.57811</v>
-      </c>
-      <c r="L63" s="12">
-        <v>16.643978</v>
-      </c>
-      <c r="M63" s="12">
-        <v>23.404887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="H63" s="2">
+        <v>-0.302184767387013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="6">
         <v>76</v>
       </c>
@@ -3967,25 +2944,10 @@
         <v>17</v>
       </c>
       <c r="H64" s="2">
-        <v>63.648553</v>
-      </c>
-      <c r="I64" s="2">
-        <v>2.6326014</v>
-      </c>
-      <c r="J64" s="2">
-        <v>104.61125</v>
-      </c>
-      <c r="K64" s="2">
-        <v>105.50449</v>
-      </c>
-      <c r="L64" s="2">
-        <v>29.698508</v>
-      </c>
-      <c r="M64" s="2">
-        <v>50.431512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.404782277652332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>78</v>
       </c>
@@ -4008,25 +2970,10 @@
         <v>16</v>
       </c>
       <c r="H65" s="2">
-        <v>63.682206</v>
-      </c>
-      <c r="I65" s="2">
-        <v>2.095025</v>
-      </c>
-      <c r="J65" s="2">
-        <v>109.96794</v>
-      </c>
-      <c r="K65" s="2">
-        <v>107.91543</v>
-      </c>
-      <c r="L65" s="2">
-        <v>26.093276</v>
-      </c>
-      <c r="M65" s="2">
-        <v>38.646316</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>-0.269480021491129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="6">
         <v>79</v>
       </c>
@@ -4049,25 +2996,10 @@
         <v>23</v>
       </c>
       <c r="H66" s="2">
-        <v>63.772882</v>
-      </c>
-      <c r="I66" s="2">
-        <v>2.141807</v>
-      </c>
-      <c r="J66" s="2">
-        <v>109.74583</v>
-      </c>
-      <c r="K66" s="2">
-        <v>107.62515</v>
-      </c>
-      <c r="L66" s="2">
-        <v>26.360393</v>
-      </c>
-      <c r="M66" s="2">
-        <v>38.26074</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>-0.196808414858198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="6">
         <v>81</v>
       </c>
@@ -4090,25 +3022,10 @@
         <v>16</v>
       </c>
       <c r="H67" s="2">
-        <v>63.442823</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1.4665165</v>
-      </c>
-      <c r="J67" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K67" s="2">
-        <v>97.436245</v>
-      </c>
-      <c r="L67" s="2">
-        <v>37.261728</v>
-      </c>
-      <c r="M67" s="2">
-        <v>62.05907</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>-0.356102136118917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>82</v>
       </c>
@@ -4131,25 +3048,10 @@
         <v>28</v>
       </c>
       <c r="H68" s="2">
-        <v>64.083273</v>
-      </c>
-      <c r="I68" s="2">
-        <v>3.3467771</v>
-      </c>
-      <c r="J68" s="2">
-        <v>110.96987</v>
-      </c>
-      <c r="K68" s="2">
-        <v>110.9831</v>
-      </c>
-      <c r="L68" s="2">
-        <v>18.814015</v>
-      </c>
-      <c r="M68" s="2">
-        <v>24.755246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.0934708229623709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>83</v>
       </c>
@@ -4172,25 +3074,10 @@
         <v>24</v>
       </c>
       <c r="H69" s="2">
-        <v>64.184308</v>
-      </c>
-      <c r="I69" s="2">
-        <v>2.7848247</v>
-      </c>
-      <c r="J69" s="2">
-        <v>105.23359</v>
-      </c>
-      <c r="K69" s="2">
-        <v>101.29833</v>
-      </c>
-      <c r="L69" s="2">
-        <v>24.368001</v>
-      </c>
-      <c r="M69" s="2">
-        <v>26.286334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.708523092351416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="6">
         <v>84</v>
       </c>
@@ -4213,25 +3100,10 @@
         <v>36</v>
       </c>
       <c r="H70" s="2">
-        <v>64.507869</v>
-      </c>
-      <c r="I70" s="2">
-        <v>2.1448156</v>
-      </c>
-      <c r="J70" s="2">
-        <v>110.70031</v>
-      </c>
-      <c r="K70" s="2">
-        <v>110.2175</v>
-      </c>
-      <c r="L70" s="2">
-        <v>11.89194</v>
-      </c>
-      <c r="M70" s="2">
-        <v>15.289765</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.0453362527701329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>85</v>
       </c>
@@ -4254,25 +3126,10 @@
         <v>18</v>
       </c>
       <c r="H71" s="2">
-        <v>64.236257</v>
-      </c>
-      <c r="I71" s="2">
-        <v>2.0522514</v>
-      </c>
-      <c r="J71" s="2">
-        <v>107.16121</v>
-      </c>
-      <c r="K71" s="2">
-        <v>105.46737</v>
-      </c>
-      <c r="L71" s="2">
-        <v>43.684258</v>
-      </c>
-      <c r="M71" s="2">
-        <v>49.61437</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.12957770901815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="6">
         <v>87</v>
       </c>
@@ -4295,25 +3152,10 @@
         <v>23</v>
       </c>
       <c r="H72" s="2">
-        <v>64.257535</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1.90751515</v>
-      </c>
-      <c r="J72" s="2">
-        <v>104.59174</v>
-      </c>
-      <c r="K72" s="2">
-        <v>98.204377</v>
-      </c>
-      <c r="L72" s="2">
-        <v>30.708663</v>
-      </c>
-      <c r="M72" s="2">
-        <v>54.76755</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.603991723054924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="6">
         <v>88</v>
       </c>
@@ -4336,25 +3178,10 @@
         <v>18</v>
       </c>
       <c r="H73" s="2">
-        <v>63.874936</v>
-      </c>
-      <c r="I73" s="2">
-        <v>3.6029868</v>
-      </c>
-      <c r="J73" s="2">
-        <v>108.12432</v>
-      </c>
-      <c r="K73" s="2">
-        <v>103.80583</v>
-      </c>
-      <c r="L73" s="2">
-        <v>22.877845</v>
-      </c>
-      <c r="M73" s="2">
-        <v>28.026614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.473386389394246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="6">
         <v>89</v>
       </c>
@@ -4377,25 +3204,10 @@
         <v>17</v>
       </c>
       <c r="H74" s="2">
-        <v>64.061242</v>
-      </c>
-      <c r="I74" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J74" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K74" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L74" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M74" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>-0.138669032550913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="6">
         <v>93</v>
       </c>
@@ -4418,25 +3230,10 @@
         <v>27</v>
       </c>
       <c r="H75" s="2">
-        <v>63.774181</v>
-      </c>
-      <c r="I75" s="2">
-        <v>2.1248956</v>
-      </c>
-      <c r="J75" s="2">
-        <v>107.3073</v>
-      </c>
-      <c r="K75" s="2">
-        <v>107.26423</v>
-      </c>
-      <c r="L75" s="2">
-        <v>42.446433</v>
-      </c>
-      <c r="M75" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>-0.0797719990069098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="6">
         <v>94</v>
       </c>
@@ -4459,25 +3256,10 @@
         <v>17</v>
       </c>
       <c r="H76" s="2">
-        <v>63.494454</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1.5404066</v>
-      </c>
-      <c r="J76" s="2">
-        <v>110.46943</v>
-      </c>
-      <c r="K76" s="2">
-        <v>112.76911</v>
-      </c>
-      <c r="L76" s="2">
-        <v>21.297158</v>
-      </c>
-      <c r="M76" s="2">
-        <v>41.475512</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>-0.594025667589594</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="6">
         <v>95</v>
       </c>
@@ -4500,25 +3282,10 @@
         <v>23</v>
       </c>
       <c r="H77" s="2">
-        <v>63.896835</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1.5694047</v>
-      </c>
-      <c r="J77" s="2">
-        <v>109.70948</v>
-      </c>
-      <c r="K77" s="2">
-        <v>106.13806</v>
-      </c>
-      <c r="L77" s="2">
-        <v>28.386636</v>
-      </c>
-      <c r="M77" s="2">
-        <v>37.878953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>-0.27541210439396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="6">
         <v>96</v>
       </c>
@@ -4541,25 +3308,10 @@
         <v>20</v>
       </c>
       <c r="H78" s="2">
-        <v>64.146782</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1.90751515</v>
-      </c>
-      <c r="J78" s="2">
-        <v>104.94965</v>
-      </c>
-      <c r="K78" s="2">
-        <v>101.52399</v>
-      </c>
-      <c r="L78" s="2">
-        <v>19.772331</v>
-      </c>
-      <c r="M78" s="2">
-        <v>36.734117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.534257317311627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="6">
         <v>97</v>
       </c>
@@ -4582,25 +3334,10 @@
         <v>22</v>
       </c>
       <c r="H79" s="2">
-        <v>64.087539</v>
-      </c>
-      <c r="I79" s="2">
-        <v>1.4031168</v>
-      </c>
-      <c r="J79" s="2">
-        <v>111.28536</v>
-      </c>
-      <c r="K79" s="2">
-        <v>111.19685</v>
-      </c>
-      <c r="L79" s="2">
-        <v>17.510906</v>
-      </c>
-      <c r="M79" s="2">
-        <v>32.021335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>-0.420200643687075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="6">
         <v>98</v>
       </c>
@@ -4623,25 +3360,10 @@
         <v>33</v>
       </c>
       <c r="H80" s="2">
-        <v>63.979051</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1.6641241</v>
-      </c>
-      <c r="J80" s="2">
-        <v>109.03299</v>
-      </c>
-      <c r="K80" s="2">
-        <v>106.26211</v>
-      </c>
-      <c r="L80" s="2">
-        <v>25.264519</v>
-      </c>
-      <c r="M80" s="2">
-        <v>36.163669</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>-0.132371358563407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="6">
         <v>99</v>
       </c>
@@ -4664,25 +3386,10 @@
         <v>17</v>
       </c>
       <c r="H81" s="2">
-        <v>63.954478</v>
-      </c>
-      <c r="I81" s="2">
-        <v>1.6624926</v>
-      </c>
-      <c r="J81" s="2">
-        <v>108.78503</v>
-      </c>
-      <c r="K81" s="2">
-        <v>105.739</v>
-      </c>
-      <c r="L81" s="2">
-        <v>30.540514</v>
-      </c>
-      <c r="M81" s="2">
-        <v>34.204415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>-0.148805817391066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="6">
         <v>100</v>
       </c>
@@ -4705,25 +3412,10 @@
         <v>19</v>
       </c>
       <c r="H82" s="2">
-        <v>64.303065</v>
-      </c>
-      <c r="I82" s="2">
-        <v>2.0951541</v>
-      </c>
-      <c r="J82" s="2">
-        <v>110.89872</v>
-      </c>
-      <c r="K82" s="2">
-        <v>109.86868</v>
-      </c>
-      <c r="L82" s="2">
-        <v>36.323238</v>
-      </c>
-      <c r="M82" s="2">
-        <v>43.130518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>-0.235766906805246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>101</v>
       </c>
@@ -4746,25 +3438,10 @@
         <v>22</v>
       </c>
       <c r="H83" s="2">
-        <v>63.663643</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J83" s="2">
-        <v>108.31029</v>
-      </c>
-      <c r="K83" s="2">
-        <v>108.16504</v>
-      </c>
-      <c r="L83" s="2">
-        <v>15.551231</v>
-      </c>
-      <c r="M83" s="2">
-        <v>20.610649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>-0.0931736600557457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>102</v>
       </c>
@@ -4787,25 +3464,10 @@
         <v>26</v>
       </c>
       <c r="H84" s="2">
-        <v>64.15432</v>
-      </c>
-      <c r="I84" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J84" s="2">
-        <v>110.34007</v>
-      </c>
-      <c r="K84" s="2">
-        <v>110.46503</v>
-      </c>
-      <c r="L84" s="2">
-        <v>18.772595</v>
-      </c>
-      <c r="M84" s="2">
-        <v>28.226358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>-0.169574101864437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="6">
         <v>103</v>
       </c>
@@ -4828,25 +3490,10 @@
         <v>17</v>
       </c>
       <c r="H85" s="2">
-        <v>64.132189</v>
-      </c>
-      <c r="I85" s="2">
-        <v>3.1624435</v>
-      </c>
-      <c r="J85" s="2">
-        <v>110.31836</v>
-      </c>
-      <c r="K85" s="2">
-        <v>107.0486</v>
-      </c>
-      <c r="L85" s="2">
-        <v>16.176574</v>
-      </c>
-      <c r="M85" s="2">
-        <v>22.447183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.229718666322125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>104</v>
       </c>
@@ -4869,25 +3516,10 @@
         <v>21</v>
       </c>
       <c r="H86" s="2">
-        <v>63.939491</v>
-      </c>
-      <c r="I86" s="2">
-        <v>2.1592519</v>
-      </c>
-      <c r="J86" s="2">
-        <v>109.01694</v>
-      </c>
-      <c r="K86" s="2">
-        <v>105.55766</v>
-      </c>
-      <c r="L86" s="2">
-        <v>30.26234</v>
-      </c>
-      <c r="M86" s="2">
-        <v>58.645113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>-0.0351415449864621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>105</v>
       </c>
@@ -4910,25 +3542,10 @@
         <v>23</v>
       </c>
       <c r="H87" s="2">
-        <v>64.018014</v>
-      </c>
-      <c r="I87" s="2">
-        <v>2.4181696</v>
-      </c>
-      <c r="J87" s="2">
-        <v>110.37938</v>
-      </c>
-      <c r="K87" s="2">
-        <v>108.14846</v>
-      </c>
-      <c r="L87" s="2">
-        <v>25.320179</v>
-      </c>
-      <c r="M87" s="2">
-        <v>14.56962</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>-0.105922209007189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>106</v>
       </c>
@@ -4951,25 +3568,10 @@
         <v>25</v>
       </c>
       <c r="H88" s="2">
-        <v>64.274549</v>
-      </c>
-      <c r="I88" s="2">
-        <v>2.0974226</v>
-      </c>
-      <c r="J88" s="2">
-        <v>109.02387</v>
-      </c>
-      <c r="K88" s="2">
-        <v>107.16738</v>
-      </c>
-      <c r="L88" s="2">
-        <v>11.93291</v>
-      </c>
-      <c r="M88" s="2">
-        <v>15.526416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.168965377999763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>108</v>
       </c>
@@ -4992,25 +3594,10 @@
         <v>26</v>
       </c>
       <c r="H89" s="2">
-        <v>63.971597</v>
-      </c>
-      <c r="I89" s="2">
-        <v>1.4158131</v>
-      </c>
-      <c r="J89" s="2">
-        <v>109.64894</v>
-      </c>
-      <c r="K89" s="2">
-        <v>102.81198</v>
-      </c>
-      <c r="L89" s="2">
-        <v>15.42049</v>
-      </c>
-      <c r="M89" s="2">
-        <v>17.841822</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>-0.119534384248237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="6">
         <v>109</v>
       </c>
@@ -5033,25 +3620,10 @@
         <v>26</v>
       </c>
       <c r="H90" s="2">
-        <v>64.342746</v>
-      </c>
-      <c r="I90" s="2">
-        <v>2.0594047</v>
-      </c>
-      <c r="J90" s="2">
-        <v>110.29752</v>
-      </c>
-      <c r="K90" s="2">
-        <v>109.0831</v>
-      </c>
-      <c r="L90" s="2">
-        <v>12.390932</v>
-      </c>
-      <c r="M90" s="2">
-        <v>16.178633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.018611461128465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="6">
         <v>111</v>
       </c>
@@ -5074,25 +3646,10 @@
         <v>16</v>
       </c>
       <c r="H91" s="2">
-        <v>64.3052</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1.4422853</v>
-      </c>
-      <c r="J91" s="2">
-        <v>110.23525</v>
-      </c>
-      <c r="K91" s="2">
-        <v>108.4646</v>
-      </c>
-      <c r="L91" s="2">
-        <v>37.515519</v>
-      </c>
-      <c r="M91" s="2">
-        <v>40.981736</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>-0.31688833130362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="6">
         <v>112</v>
       </c>
@@ -5115,25 +3672,10 @@
         <v>29</v>
       </c>
       <c r="H92" s="2">
-        <v>64.09936</v>
-      </c>
-      <c r="I92" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J92" s="2">
-        <v>110.18714</v>
-      </c>
-      <c r="K92" s="2">
-        <v>108.72023</v>
-      </c>
-      <c r="L92" s="2">
-        <v>17.932449</v>
-      </c>
-      <c r="M92" s="2">
-        <v>28.471203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>-0.133581926358039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="6">
         <v>113</v>
       </c>
@@ -5156,25 +3698,10 @@
         <v>20</v>
       </c>
       <c r="H93" s="2">
-        <v>64.201903</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1.4025691</v>
-      </c>
-      <c r="J93" s="2">
-        <v>109.71722</v>
-      </c>
-      <c r="K93" s="2">
-        <v>106.74005</v>
-      </c>
-      <c r="L93" s="2">
-        <v>29.062847</v>
-      </c>
-      <c r="M93" s="2">
-        <v>30.339478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>-0.220427862767216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="6">
         <v>115</v>
       </c>
@@ -5197,25 +3724,10 @@
         <v>18</v>
       </c>
       <c r="H94" s="2">
-        <v>63.571991</v>
-      </c>
-      <c r="I94" s="2">
-        <v>1.9314516</v>
-      </c>
-      <c r="J94" s="2">
-        <v>109.27171</v>
-      </c>
-      <c r="K94" s="2">
-        <v>108.38528</v>
-      </c>
-      <c r="L94" s="2">
-        <v>45.378729</v>
-      </c>
-      <c r="M94" s="2">
-        <v>54.752814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>-0.437212301667768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="6">
         <v>116</v>
       </c>
@@ -5238,25 +3750,10 @@
         <v>23</v>
       </c>
       <c r="H95" s="2">
-        <v>63.475807</v>
-      </c>
-      <c r="I95" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J95" s="2">
-        <v>105.84163</v>
-      </c>
-      <c r="K95" s="2">
-        <v>99.553619</v>
-      </c>
-      <c r="L95" s="2">
-        <v>37.495162</v>
-      </c>
-      <c r="M95" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.0892963746600126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="6">
         <v>118</v>
       </c>
@@ -5279,25 +3776,10 @@
         <v>37</v>
       </c>
       <c r="H96" s="2">
-        <v>63.994214</v>
-      </c>
-      <c r="I96" s="2">
-        <v>2.1578137</v>
-      </c>
-      <c r="J96" s="2">
-        <v>108.13835</v>
-      </c>
-      <c r="K96" s="2">
-        <v>106.11054</v>
-      </c>
-      <c r="L96" s="2">
-        <v>31.004637</v>
-      </c>
-      <c r="M96" s="2">
-        <v>27.4882</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.0415985861238576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="6">
         <v>120</v>
       </c>
@@ -5320,25 +3802,10 @@
         <v>26</v>
       </c>
       <c r="H97" s="2">
-        <v>64.279984</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1.3300619</v>
-      </c>
-      <c r="J97" s="2">
-        <v>109.00361</v>
-      </c>
-      <c r="K97" s="2">
-        <v>101.63571</v>
-      </c>
-      <c r="L97" s="2">
-        <v>21.357193</v>
-      </c>
-      <c r="M97" s="2">
-        <v>34.300375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.0273525897759167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="6">
         <v>122</v>
       </c>
@@ -5361,25 +3828,10 @@
         <v>16</v>
       </c>
       <c r="H98" s="2">
-        <v>63.463628</v>
-      </c>
-      <c r="I98" s="2">
-        <v>2.3364753</v>
-      </c>
-      <c r="J98" s="2">
-        <v>105.30228</v>
-      </c>
-      <c r="K98" s="2">
-        <v>101.52396</v>
-      </c>
-      <c r="L98" s="2">
-        <v>22.183389</v>
-      </c>
-      <c r="M98" s="2">
-        <v>44.442192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.327164020958289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="6">
         <v>123</v>
       </c>
@@ -5402,25 +3854,10 @@
         <v>29</v>
       </c>
       <c r="H99" s="2">
-        <v>64.518079</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1.4518935</v>
-      </c>
-      <c r="J99" s="2">
-        <v>109.30053</v>
-      </c>
-      <c r="K99" s="2">
-        <v>108.73208</v>
-      </c>
-      <c r="L99" s="2">
-        <v>42.276119</v>
-      </c>
-      <c r="M99" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>-0.184700135044074</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="6">
         <v>124</v>
       </c>
@@ -5430,7 +3867,7 @@
       <c r="C100" s="6">
         <v>0</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="9">
         <v>0</v>
       </c>
       <c r="E100" s="6">
@@ -5443,25 +3880,10 @@
         <v>17</v>
       </c>
       <c r="H100" s="2">
-        <v>64.200842</v>
-      </c>
-      <c r="I100" s="2">
-        <v>1.5729773</v>
-      </c>
-      <c r="J100" s="2">
-        <v>110.24935</v>
-      </c>
-      <c r="K100" s="2">
-        <v>107.73529</v>
-      </c>
-      <c r="L100" s="2">
-        <v>27.426286</v>
-      </c>
-      <c r="M100" s="2">
-        <v>32.363969</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>-0.236675852724112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="6">
         <v>125</v>
       </c>
@@ -5484,25 +3906,10 @@
         <v>19</v>
       </c>
       <c r="H101" s="2">
-        <v>63.936413</v>
-      </c>
-      <c r="I101" s="2">
-        <v>2.2723149</v>
-      </c>
-      <c r="J101" s="2">
-        <v>110.66083</v>
-      </c>
-      <c r="K101" s="2">
-        <v>108.80978</v>
-      </c>
-      <c r="L101" s="2">
-        <v>17.995333</v>
-      </c>
-      <c r="M101" s="2">
-        <v>35.521773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>-0.150606346473799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="6">
         <v>126</v>
       </c>
@@ -5525,25 +3932,10 @@
         <v>20</v>
       </c>
       <c r="H102" s="2">
-        <v>63.685018</v>
-      </c>
-      <c r="I102" s="2">
-        <v>2.2000069</v>
-      </c>
-      <c r="J102" s="2">
-        <v>110.09796</v>
-      </c>
-      <c r="K102" s="2">
-        <v>108.29405</v>
-      </c>
-      <c r="L102" s="2">
-        <v>20.916769</v>
-      </c>
-      <c r="M102" s="2">
-        <v>22.704387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>-0.229087601620451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="6">
         <v>128</v>
       </c>
@@ -5566,25 +3958,10 @@
         <v>24</v>
       </c>
       <c r="H103" s="2">
-        <v>63.792447</v>
-      </c>
-      <c r="I103" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J103" s="2">
-        <v>108.84438</v>
-      </c>
-      <c r="K103" s="2">
-        <v>104.07928</v>
-      </c>
-      <c r="L103" s="2">
-        <v>16.469029</v>
-      </c>
-      <c r="M103" s="2">
-        <v>19.564635</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>-0.0188145197805548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="6">
         <v>129</v>
       </c>
@@ -5607,25 +3984,10 @@
         <v>18</v>
       </c>
       <c r="H104" s="2">
-        <v>63.97714</v>
-      </c>
-      <c r="I104" s="2">
-        <v>2.2940392</v>
-      </c>
-      <c r="J104" s="2">
-        <v>110.39356</v>
-      </c>
-      <c r="K104" s="2">
-        <v>109.22639</v>
-      </c>
-      <c r="L104" s="2">
-        <v>13.691841</v>
-      </c>
-      <c r="M104" s="2">
-        <v>51.138966</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>-0.0719126970266804</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="6">
         <v>130</v>
       </c>
@@ -5648,25 +4010,10 @@
         <v>33</v>
       </c>
       <c r="H105" s="2">
-        <v>64.214957</v>
-      </c>
-      <c r="I105" s="2">
-        <v>2.4557683</v>
-      </c>
-      <c r="J105" s="2">
-        <v>110.48831</v>
-      </c>
-      <c r="K105" s="2">
-        <v>109.42639</v>
-      </c>
-      <c r="L105" s="2">
-        <v>13.727913</v>
-      </c>
-      <c r="M105" s="2">
-        <v>51.138966</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>0.0480932357350703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="6">
         <v>131</v>
       </c>
@@ -5689,25 +4036,10 @@
         <v>23</v>
       </c>
       <c r="H106" s="2">
-        <v>63.950076</v>
-      </c>
-      <c r="I106" s="2">
-        <v>2.9791796</v>
-      </c>
-      <c r="J106" s="2">
-        <v>103.80037</v>
-      </c>
-      <c r="K106" s="2">
-        <v>98.887558</v>
-      </c>
-      <c r="L106" s="2">
-        <v>32.03974</v>
-      </c>
-      <c r="M106" s="2">
-        <v>26.845053</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>0.79754718587298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="6">
         <v>132</v>
       </c>
@@ -5730,25 +4062,10 @@
         <v>20</v>
       </c>
       <c r="H107" s="2">
-        <v>64.256747</v>
-      </c>
-      <c r="I107" s="2">
-        <v>2.4453213</v>
-      </c>
-      <c r="J107" s="2">
-        <v>110.04946</v>
-      </c>
-      <c r="K107" s="2">
-        <v>107.35125</v>
-      </c>
-      <c r="L107" s="2">
-        <v>35.279797</v>
-      </c>
-      <c r="M107" s="2">
-        <v>26.657601</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>-0.0290061288184266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="6">
         <v>133</v>
       </c>
@@ -5771,25 +4088,10 @@
         <v>18</v>
       </c>
       <c r="H108" s="2">
-        <v>64.256672</v>
-      </c>
-      <c r="I108" s="2">
-        <v>1.5578195</v>
-      </c>
-      <c r="J108" s="2">
-        <v>111.00653</v>
-      </c>
-      <c r="K108" s="2">
-        <v>111.20264</v>
-      </c>
-      <c r="L108" s="2">
-        <v>18.667298</v>
-      </c>
-      <c r="M108" s="2">
-        <v>34.919747</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>-0.295588710037685</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="6">
         <v>134</v>
       </c>
@@ -5812,25 +4114,10 @@
         <v>20</v>
       </c>
       <c r="H109" s="2">
-        <v>64.262873</v>
-      </c>
-      <c r="I109" s="2">
-        <v>1.4616031</v>
-      </c>
-      <c r="J109" s="2">
-        <v>110.99428</v>
-      </c>
-      <c r="K109" s="2">
-        <v>109.47699</v>
-      </c>
-      <c r="L109" s="2">
-        <v>20.237144</v>
-      </c>
-      <c r="M109" s="2">
-        <v>39.35985</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>-0.291146805305313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="6">
         <v>135</v>
       </c>
@@ -5852,26 +4139,11 @@
       <c r="G110" s="6">
         <v>42</v>
       </c>
-      <c r="H110" s="14">
-        <v>64.596346</v>
-      </c>
-      <c r="I110" s="14">
-        <v>1.8097663</v>
-      </c>
-      <c r="J110" s="14">
-        <v>111.36471</v>
-      </c>
-      <c r="K110" s="14">
-        <v>110.99566</v>
-      </c>
-      <c r="L110" s="14">
-        <v>18.750434</v>
-      </c>
-      <c r="M110" s="14">
-        <v>23.129279</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="H110" s="2">
+        <v>-0.0927795286467149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="6">
         <v>136</v>
       </c>
@@ -5894,25 +4166,10 @@
         <v>21</v>
       </c>
       <c r="H111" s="2">
-        <v>64.215769</v>
-      </c>
-      <c r="I111" s="2">
-        <v>2.012714</v>
-      </c>
-      <c r="J111" s="2">
-        <v>110.66741</v>
-      </c>
-      <c r="K111" s="2">
-        <v>105.55336</v>
-      </c>
-      <c r="L111" s="2">
-        <v>40.351164</v>
-      </c>
-      <c r="M111" s="2">
-        <v>27.766718</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>-0.216857619078352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="6">
         <v>137</v>
       </c>
@@ -5935,25 +4192,10 @@
         <v>26</v>
       </c>
       <c r="H112" s="2">
-        <v>63.680415</v>
-      </c>
-      <c r="I112" s="2">
-        <v>3.9844969</v>
-      </c>
-      <c r="J112" s="2">
-        <v>106.13403</v>
-      </c>
-      <c r="K112" s="2">
-        <v>100.89404</v>
-      </c>
-      <c r="L112" s="2">
-        <v>22.03498</v>
-      </c>
-      <c r="M112" s="2">
-        <v>43.624668</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>0.762098564144776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="6">
         <v>138</v>
       </c>
@@ -5976,25 +4218,10 @@
         <v>28</v>
       </c>
       <c r="H113" s="2">
-        <v>64.585612</v>
-      </c>
-      <c r="I113" s="2">
-        <v>1.5779337</v>
-      </c>
-      <c r="J113" s="2">
-        <v>110.99813</v>
-      </c>
-      <c r="K113" s="2">
-        <v>110.06876</v>
-      </c>
-      <c r="L113" s="2">
-        <v>32.894305</v>
-      </c>
-      <c r="M113" s="2">
-        <v>76.577871</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>-0.230295624717731</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>139</v>
       </c>
@@ -6016,26 +4243,11 @@
       <c r="G114" s="6">
         <v>23</v>
       </c>
-      <c r="H114" s="14">
-        <v>64.499405</v>
-      </c>
-      <c r="I114" s="14">
-        <v>1.6122985</v>
-      </c>
-      <c r="J114" s="14">
-        <v>109.76167</v>
-      </c>
-      <c r="K114" s="14">
-        <v>108.47688</v>
-      </c>
-      <c r="L114" s="14">
-        <v>31.093893</v>
-      </c>
-      <c r="M114" s="14">
-        <v>64.184562</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="H114" s="2">
+        <v>-0.135759494813434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="6">
         <v>140</v>
       </c>
@@ -6057,26 +4269,11 @@
       <c r="G115" s="6">
         <v>28</v>
       </c>
-      <c r="H115" s="11">
-        <v>64.079687</v>
-      </c>
-      <c r="I115" s="11">
-        <v>1.3076689</v>
-      </c>
-      <c r="J115" s="11">
-        <v>110.35621</v>
-      </c>
-      <c r="K115" s="11">
-        <v>110.2756</v>
-      </c>
-      <c r="L115" s="11">
-        <v>26.191319</v>
-      </c>
-      <c r="M115" s="11">
-        <v>65.439713</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="H115" s="2">
+        <v>-0.0903294874333386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>141</v>
       </c>
@@ -6099,25 +4296,10 @@
         <v>28</v>
       </c>
       <c r="H116" s="2">
-        <v>64.144715</v>
-      </c>
-      <c r="I116" s="2">
-        <v>1.6378877</v>
-      </c>
-      <c r="J116" s="2">
-        <v>101.91016</v>
-      </c>
-      <c r="K116" s="2">
-        <v>93.790816</v>
-      </c>
-      <c r="L116" s="2">
-        <v>24.028923</v>
-      </c>
-      <c r="M116" s="2">
-        <v>61.557018</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>0.899087523803191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>142</v>
       </c>
@@ -6140,25 +4322,10 @@
         <v>28</v>
       </c>
       <c r="H117" s="2">
-        <v>64.061242</v>
-      </c>
-      <c r="I117" s="2">
-        <v>1.3380613</v>
-      </c>
-      <c r="J117" s="2">
-        <v>109.55562</v>
-      </c>
-      <c r="K117" s="2">
-        <v>107.10446</v>
-      </c>
-      <c r="L117" s="2">
-        <v>25.168315</v>
-      </c>
-      <c r="M117" s="2">
-        <v>39.940381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>-0.249216896314886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>143</v>
       </c>
@@ -6181,25 +4348,10 @@
         <v>21</v>
       </c>
       <c r="H118" s="2">
-        <v>63.824745</v>
-      </c>
-      <c r="I118" s="2">
-        <v>2.2687783</v>
-      </c>
-      <c r="J118" s="2">
-        <v>108.15603</v>
-      </c>
-      <c r="K118" s="2">
-        <v>106.50371</v>
-      </c>
-      <c r="L118" s="2">
-        <v>11.617195</v>
-      </c>
-      <c r="M118" s="2">
-        <v>25.986235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>0.142646109718468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="6">
         <v>144</v>
       </c>
@@ -6222,25 +4374,10 @@
         <v>28</v>
       </c>
       <c r="H119" s="2">
-        <v>63.788742</v>
-      </c>
-      <c r="I119" s="2">
-        <v>2.0014285</v>
-      </c>
-      <c r="J119" s="2">
-        <v>110.90741</v>
-      </c>
-      <c r="K119" s="2">
-        <v>108.84116</v>
-      </c>
-      <c r="L119" s="2">
-        <v>12.257148</v>
-      </c>
-      <c r="M119" s="2">
-        <v>10.838386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>-0.267819873588246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>145</v>
       </c>
@@ -6263,25 +4400,10 @@
         <v>21</v>
       </c>
       <c r="H120" s="2">
-        <v>63.397539</v>
-      </c>
-      <c r="I120" s="2">
-        <v>2.0910182</v>
-      </c>
-      <c r="J120" s="2">
-        <v>108.29878</v>
-      </c>
-      <c r="K120" s="2">
-        <v>105.30357</v>
-      </c>
-      <c r="L120" s="2">
-        <v>25.005671</v>
-      </c>
-      <c r="M120" s="2">
-        <v>40.876999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>-0.155029155785159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="6">
         <v>146</v>
       </c>
@@ -6304,25 +4426,10 @@
         <v>22</v>
       </c>
       <c r="H121" s="2">
-        <v>64.049661</v>
-      </c>
-      <c r="I121" s="2">
-        <v>1.6060331</v>
-      </c>
-      <c r="J121" s="2">
-        <v>111.65234</v>
-      </c>
-      <c r="K121" s="2">
-        <v>113.61719</v>
-      </c>
-      <c r="L121" s="2">
-        <v>15.709108</v>
-      </c>
-      <c r="M121" s="2">
-        <v>22.030998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>-0.459450187246143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>147</v>
       </c>
@@ -6345,25 +4452,10 @@
         <v>29</v>
       </c>
       <c r="H122" s="2">
-        <v>64.038023</v>
-      </c>
-      <c r="I122" s="2">
-        <v>1.6990367</v>
-      </c>
-      <c r="J122" s="2">
-        <v>104.23449</v>
-      </c>
-      <c r="K122" s="2">
-        <v>99.626623</v>
-      </c>
-      <c r="L122" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M122" s="2">
-        <v>41.112553</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>-0.357063583151427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="6">
         <v>151</v>
       </c>
@@ -6386,25 +4478,10 @@
         <v>25</v>
       </c>
       <c r="H123" s="2">
-        <v>64.176203</v>
-      </c>
-      <c r="I123" s="2">
-        <v>1.32712</v>
-      </c>
-      <c r="J123" s="2">
-        <v>110.56638</v>
-      </c>
-      <c r="K123" s="2">
-        <v>109.50974</v>
-      </c>
-      <c r="L123" s="2">
-        <v>29.326855</v>
-      </c>
-      <c r="M123" s="2">
-        <v>27.514378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>-0.392829096867221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>152</v>
       </c>
@@ -6427,25 +4504,10 @@
         <v>18</v>
       </c>
       <c r="H124" s="2">
-        <v>64.461028</v>
-      </c>
-      <c r="I124" s="2">
-        <v>3.0500102</v>
-      </c>
-      <c r="J124" s="2">
-        <v>105.98538</v>
-      </c>
-      <c r="K124" s="2">
-        <v>107.88074</v>
-      </c>
-      <c r="L124" s="2">
-        <v>17.585646</v>
-      </c>
-      <c r="M124" s="2">
-        <v>25.609882</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>0.726701478340722</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="6">
         <v>153</v>
       </c>
@@ -6468,25 +4530,10 @@
         <v>15</v>
       </c>
       <c r="H125" s="2">
-        <v>63.885024</v>
-      </c>
-      <c r="I125" s="2">
-        <v>1.8613985</v>
-      </c>
-      <c r="J125" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K125" s="2">
-        <v>101.69448</v>
-      </c>
-      <c r="L125" s="2">
-        <v>20.450856</v>
-      </c>
-      <c r="M125" s="2">
-        <v>18.088027</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>-0.0601907291527181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="6">
         <v>155</v>
       </c>
@@ -6509,25 +4556,10 @@
         <v>27</v>
       </c>
       <c r="H126" s="2">
-        <v>64.030908</v>
-      </c>
-      <c r="I126" s="2">
-        <v>1.9062512</v>
-      </c>
-      <c r="J126" s="2">
-        <v>104.81087</v>
-      </c>
-      <c r="K126" s="2">
-        <v>102.43753</v>
-      </c>
-      <c r="L126" s="2">
-        <v>28.726238</v>
-      </c>
-      <c r="M126" s="2">
-        <v>33.82567</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>0.413412369262295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="6">
         <v>157</v>
       </c>
@@ -6550,25 +4582,10 @@
         <v>36</v>
       </c>
       <c r="H127" s="2">
-        <v>63.793095</v>
-      </c>
-      <c r="I127" s="2">
-        <v>2.0450378</v>
-      </c>
-      <c r="J127" s="2">
-        <v>104.2999</v>
-      </c>
-      <c r="K127" s="2">
-        <v>101.81809</v>
-      </c>
-      <c r="L127" s="2">
-        <v>24.028923</v>
-      </c>
-      <c r="M127" s="2">
-        <v>77.292629</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>0.473211545685267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="6">
         <v>158</v>
       </c>
@@ -6591,25 +4608,10 @@
         <v>23</v>
       </c>
       <c r="H128" s="2">
-        <v>63.52262</v>
-      </c>
-      <c r="I128" s="2">
-        <v>2.2877495</v>
-      </c>
-      <c r="J128" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K128" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L128" s="2">
-        <v>35.457796</v>
-      </c>
-      <c r="M128" s="2">
-        <v>42.120853</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>-0.31629135852058</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>160</v>
       </c>
@@ -6632,25 +4634,10 @@
         <v>34</v>
       </c>
       <c r="H129" s="2">
-        <v>63.364631</v>
-      </c>
-      <c r="I129" s="2">
-        <v>1.7971524</v>
-      </c>
-      <c r="J129" s="2">
-        <v>105.94831</v>
-      </c>
-      <c r="K129" s="2">
-        <v>101.21476</v>
-      </c>
-      <c r="L129" s="2">
-        <v>37.622958</v>
-      </c>
-      <c r="M129" s="2">
-        <v>55.797467</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>-0.0192615388924977</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>161</v>
       </c>
@@ -6672,26 +4659,11 @@
       <c r="G130" s="6">
         <v>21</v>
       </c>
-      <c r="H130" s="15">
-        <v>64.072826</v>
-      </c>
-      <c r="I130" s="15">
-        <v>1.8836382</v>
-      </c>
-      <c r="J130" s="15">
-        <v>111.02585</v>
-      </c>
-      <c r="K130" s="15">
-        <v>108.55712</v>
-      </c>
-      <c r="L130" s="15">
-        <v>34.651591</v>
-      </c>
-      <c r="M130" s="15">
-        <v>60.361348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="H130" s="2">
+        <v>0.0680261733531786</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="6">
         <v>163</v>
       </c>
@@ -6714,25 +4686,10 @@
         <v>28</v>
       </c>
       <c r="H131" s="2">
-        <v>63.695742</v>
-      </c>
-      <c r="I131" s="2">
-        <v>1.5025063</v>
-      </c>
-      <c r="J131" s="2">
-        <v>106.61955</v>
-      </c>
-      <c r="K131" s="2">
-        <v>100.37074</v>
-      </c>
-      <c r="L131" s="2">
-        <v>35.998015</v>
-      </c>
-      <c r="M131" s="2">
-        <v>38.660367</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>-0.00809191756448979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>164</v>
       </c>
@@ -6755,25 +4712,10 @@
         <v>27</v>
       </c>
       <c r="H132" s="2">
-        <v>63.907363</v>
-      </c>
-      <c r="I132" s="2">
-        <v>1.8679536</v>
-      </c>
-      <c r="J132" s="2">
-        <v>103.95355</v>
-      </c>
-      <c r="K132" s="2">
-        <v>97.96273</v>
-      </c>
-      <c r="L132" s="2">
-        <v>31.235963</v>
-      </c>
-      <c r="M132" s="2">
-        <v>47.798908</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>0.517987202522476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>165</v>
       </c>
@@ -6796,25 +4738,10 @@
         <v>36</v>
       </c>
       <c r="H133" s="2">
-        <v>64.312499</v>
-      </c>
-      <c r="I133" s="2">
-        <v>3.8084694</v>
-      </c>
-      <c r="J133" s="2">
-        <v>105.52072</v>
-      </c>
-      <c r="K133" s="2">
-        <v>104.24348</v>
-      </c>
-      <c r="L133" s="2">
-        <v>24.879934</v>
-      </c>
-      <c r="M133" s="2">
-        <v>34.920662</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>0.929245069020583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>166</v>
       </c>
@@ -6837,25 +4764,10 @@
         <v>21</v>
       </c>
       <c r="H134" s="2">
-        <v>64.548866</v>
-      </c>
-      <c r="I134" s="2">
-        <v>1.4124222</v>
-      </c>
-      <c r="J134" s="2">
-        <v>111.62397</v>
-      </c>
-      <c r="K134" s="2">
-        <v>111.1841</v>
-      </c>
-      <c r="L134" s="2">
-        <v>19.426674</v>
-      </c>
-      <c r="M134" s="2">
-        <v>21.292988</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>-0.290298018134418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>167</v>
       </c>
@@ -6878,25 +4790,10 @@
         <v>23</v>
       </c>
       <c r="H135" s="2">
-        <v>64.50507</v>
-      </c>
-      <c r="I135" s="2">
-        <v>1.6641952</v>
-      </c>
-      <c r="J135" s="2">
-        <v>111.02754</v>
-      </c>
-      <c r="K135" s="2">
-        <v>109.46444</v>
-      </c>
-      <c r="L135" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M135" s="2">
-        <v>32.239762</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>-0.201790725392002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>169</v>
       </c>
@@ -6919,25 +4816,10 @@
         <v>29</v>
       </c>
       <c r="H136" s="2">
-        <v>63.837208</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1.5844913</v>
-      </c>
-      <c r="J136" s="2">
-        <v>110.21827</v>
-      </c>
-      <c r="K136" s="2">
-        <v>106.92567</v>
-      </c>
-      <c r="L136" s="2">
-        <v>19.810251</v>
-      </c>
-      <c r="M136" s="2">
-        <v>19.456933</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>-0.302476963366692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="6">
         <v>170</v>
       </c>
@@ -6960,25 +4842,10 @@
         <v>23</v>
       </c>
       <c r="H137" s="2">
-        <v>64.415693</v>
-      </c>
-      <c r="I137" s="2">
-        <v>1.6467266</v>
-      </c>
-      <c r="J137" s="2">
-        <v>108.25411</v>
-      </c>
-      <c r="K137" s="2">
-        <v>108.14533</v>
-      </c>
-      <c r="L137" s="2">
-        <v>37.383957</v>
-      </c>
-      <c r="M137" s="2">
-        <v>48.378904</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>-0.0174042972625022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="6">
         <v>171</v>
       </c>
@@ -7001,25 +4868,10 @@
         <v>25</v>
       </c>
       <c r="H138" s="2">
-        <v>64.26008</v>
-      </c>
-      <c r="I138" s="2">
-        <v>1.4777832</v>
-      </c>
-      <c r="J138" s="2">
-        <v>109.83535</v>
-      </c>
-      <c r="K138" s="2">
-        <v>106.87831</v>
-      </c>
-      <c r="L138" s="2">
-        <v>25.510618</v>
-      </c>
-      <c r="M138" s="2">
-        <v>51.529511</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>-0.156803984481224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="6">
         <v>172</v>
       </c>
@@ -7029,7 +4881,7 @@
       <c r="C139" s="6">
         <v>0</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D139" s="9">
         <v>0</v>
       </c>
       <c r="E139" s="6">
@@ -7042,25 +4894,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="2">
-        <v>64.219683</v>
-      </c>
-      <c r="I139" s="2">
-        <v>2.2461617</v>
-      </c>
-      <c r="J139" s="2">
-        <v>107.82099</v>
-      </c>
-      <c r="K139" s="2">
-        <v>106.82903</v>
-      </c>
-      <c r="L139" s="2">
-        <v>20.628881</v>
-      </c>
-      <c r="M139" s="2">
-        <v>36.767221</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+        <v>0.251961198736104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>173</v>
       </c>
@@ -7083,25 +4920,10 @@
         <v>24</v>
       </c>
       <c r="H140" s="2">
-        <v>64.298748</v>
-      </c>
-      <c r="I140" s="2">
-        <v>2.9705556</v>
-      </c>
-      <c r="J140" s="2">
-        <v>110.99681</v>
-      </c>
-      <c r="K140" s="2">
-        <v>111.50025</v>
-      </c>
-      <c r="L140" s="2">
-        <v>10.508564</v>
-      </c>
-      <c r="M140" s="2">
-        <v>15.435629</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+        <v>0.128733480318204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="6">
         <v>176</v>
       </c>
@@ -7124,25 +4946,10 @@
         <v>23</v>
       </c>
       <c r="H141" s="2">
-        <v>64.00445</v>
-      </c>
-      <c r="I141" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J141" s="2">
-        <v>108.32643</v>
-      </c>
-      <c r="K141" s="2">
-        <v>108.17929</v>
-      </c>
-      <c r="L141" s="2">
-        <v>32.240253</v>
-      </c>
-      <c r="M141" s="2">
-        <v>28.970378</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>-0.0873390094379967</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>177</v>
       </c>
@@ -7165,25 +4972,10 @@
         <v>20</v>
       </c>
       <c r="H142" s="2">
-        <v>64.393342</v>
-      </c>
-      <c r="I142" s="2">
-        <v>1.4104234</v>
-      </c>
-      <c r="J142" s="2">
-        <v>110.20925</v>
-      </c>
-      <c r="K142" s="2">
-        <v>106.6507</v>
-      </c>
-      <c r="L142" s="2">
-        <v>30.462178</v>
-      </c>
-      <c r="M142" s="2">
-        <v>37.035786</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>-0.198145461135542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="6">
         <v>178</v>
       </c>
@@ -7206,25 +4998,10 @@
         <v>24</v>
       </c>
       <c r="H143" s="2">
-        <v>63.90234</v>
-      </c>
-      <c r="I143" s="2">
-        <v>2.1550723</v>
-      </c>
-      <c r="J143" s="2">
-        <v>109.44946</v>
-      </c>
-      <c r="K143" s="2">
-        <v>106.85446</v>
-      </c>
-      <c r="L143" s="2">
-        <v>18.352371</v>
-      </c>
-      <c r="M143" s="2">
-        <v>31.461202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>-0.0393490546263979</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>179</v>
       </c>
@@ -7247,25 +5024,10 @@
         <v>22</v>
       </c>
       <c r="H144" s="2">
-        <v>63.921555</v>
-      </c>
-      <c r="I144" s="2">
-        <v>1.3714376</v>
-      </c>
-      <c r="J144" s="2">
-        <v>109.97536</v>
-      </c>
-      <c r="K144" s="2">
-        <v>107.56709</v>
-      </c>
-      <c r="L144" s="2">
-        <v>36.140011</v>
-      </c>
-      <c r="M144" s="2">
-        <v>43.24195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
+        <v>-0.428870787366086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="6">
         <v>180</v>
       </c>
@@ -7288,25 +5050,10 @@
         <v>19</v>
       </c>
       <c r="H145" s="2">
-        <v>63.855255</v>
-      </c>
-      <c r="I145" s="2">
-        <v>5.0554823</v>
-      </c>
-      <c r="J145" s="2">
-        <v>102.15178</v>
-      </c>
-      <c r="K145" s="2">
-        <v>98.545099</v>
-      </c>
-      <c r="L145" s="2">
-        <v>23.002069</v>
-      </c>
-      <c r="M145" s="2">
-        <v>63.485969</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>1.54084790446503</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>181</v>
       </c>
@@ -7329,25 +5076,10 @@
         <v>23</v>
       </c>
       <c r="H146" s="2">
-        <v>64.144938</v>
-      </c>
-      <c r="I146" s="2">
-        <v>1.6773041</v>
-      </c>
-      <c r="J146" s="2">
-        <v>108.43991</v>
-      </c>
-      <c r="K146" s="2">
-        <v>104.93528</v>
-      </c>
-      <c r="L146" s="2">
-        <v>29.159875</v>
-      </c>
-      <c r="M146" s="2">
-        <v>48.863029</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>-0.00376425434843795</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>182</v>
       </c>
@@ -7370,25 +5102,10 @@
         <v>32</v>
       </c>
       <c r="H147" s="2">
-        <v>64.3597</v>
-      </c>
-      <c r="I147" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J147" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K147" s="2">
-        <v>99.62676</v>
-      </c>
-      <c r="L147" s="2">
-        <v>27.778706</v>
-      </c>
-      <c r="M147" s="2">
-        <v>52.632015</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>0.137385963713889</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>184</v>
       </c>
@@ -7411,25 +5128,10 @@
         <v>32</v>
       </c>
       <c r="H148" s="2">
-        <v>64.487072</v>
-      </c>
-      <c r="I148" s="2">
-        <v>1.90751515</v>
-      </c>
-      <c r="J148" s="2">
-        <v>106.26831</v>
-      </c>
-      <c r="K148" s="2">
-        <v>101.37803</v>
-      </c>
-      <c r="L148" s="2">
-        <v>17.61912</v>
-      </c>
-      <c r="M148" s="2">
-        <v>22.24085</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>0.551237970196643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>185</v>
       </c>
@@ -7452,25 +5154,10 @@
         <v>30</v>
       </c>
       <c r="H149" s="2">
-        <v>64.256363</v>
-      </c>
-      <c r="I149" s="2">
-        <v>1.8202412</v>
-      </c>
-      <c r="J149" s="2">
-        <v>111.56657</v>
-      </c>
-      <c r="K149" s="2">
-        <v>113.2807</v>
-      </c>
-      <c r="L149" s="2">
-        <v>23.481554</v>
-      </c>
-      <c r="M149" s="2">
-        <v>68.615338</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>-0.349544449624351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>186</v>
       </c>
@@ -7493,25 +5180,10 @@
         <v>17</v>
       </c>
       <c r="H150" s="2">
-        <v>64.421229</v>
-      </c>
-      <c r="I150" s="2">
-        <v>2.0368862</v>
-      </c>
-      <c r="J150" s="2">
-        <v>109.20239</v>
-      </c>
-      <c r="K150" s="2">
-        <v>105.78948</v>
-      </c>
-      <c r="L150" s="2">
-        <v>27.697167</v>
-      </c>
-      <c r="M150" s="2">
-        <v>35.474235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
+        <v>0.108546234815136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>187</v>
       </c>
@@ -7534,25 +5206,10 @@
         <v>21</v>
       </c>
       <c r="H151" s="2">
-        <v>63.61562</v>
-      </c>
-      <c r="I151" s="2">
-        <v>1.8228231</v>
-      </c>
-      <c r="J151" s="2">
-        <v>103.72903</v>
-      </c>
-      <c r="K151" s="2">
-        <v>99.862478</v>
-      </c>
-      <c r="L151" s="2">
-        <v>27.277179</v>
-      </c>
-      <c r="M151" s="2">
-        <v>29.441913</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+        <v>0.39859948500315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>188</v>
       </c>
@@ -7575,25 +5232,10 @@
         <v>25</v>
       </c>
       <c r="H152" s="2">
-        <v>63.7715</v>
-      </c>
-      <c r="I152" s="2">
-        <v>3.0401811</v>
-      </c>
-      <c r="J152" s="2">
-        <v>111.21518</v>
-      </c>
-      <c r="K152" s="2">
-        <v>109.8581</v>
-      </c>
-      <c r="L152" s="2">
-        <v>33.720848</v>
-      </c>
-      <c r="M152" s="2">
-        <v>41.464924</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>-0.21444356746531</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="6">
         <v>190</v>
       </c>
@@ -7616,25 +5258,10 @@
         <v>24</v>
       </c>
       <c r="H153" s="2">
-        <v>64.108187</v>
-      </c>
-      <c r="I153" s="2">
-        <v>2.927457</v>
-      </c>
-      <c r="J153" s="2">
-        <v>110.35471</v>
-      </c>
-      <c r="K153" s="2">
-        <v>107.86274</v>
-      </c>
-      <c r="L153" s="2">
-        <v>11.514691</v>
-      </c>
-      <c r="M153" s="2">
-        <v>13.335996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>0.172534528335992</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>191</v>
       </c>
@@ -7657,25 +5284,10 @@
         <v>19</v>
       </c>
       <c r="H154" s="2">
-        <v>64.316786</v>
-      </c>
-      <c r="I154" s="2">
-        <v>2.9252052</v>
-      </c>
-      <c r="J154" s="2">
-        <v>110.66857</v>
-      </c>
-      <c r="K154" s="2">
-        <v>107.46109</v>
-      </c>
-      <c r="L154" s="2">
-        <v>28.446855</v>
-      </c>
-      <c r="M154" s="2">
-        <v>36.252923</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>0.109966354301712</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="6">
         <v>192</v>
       </c>
@@ -7698,25 +5310,10 @@
         <v>19</v>
       </c>
       <c r="H155" s="2">
-        <v>64.064776</v>
-      </c>
-      <c r="I155" s="2">
-        <v>1.5169684</v>
-      </c>
-      <c r="J155" s="2">
-        <v>105.00668</v>
-      </c>
-      <c r="K155" s="2">
-        <v>99.570891</v>
-      </c>
-      <c r="L155" s="2">
-        <v>46.588676</v>
-      </c>
-      <c r="M155" s="2">
-        <v>34.920662</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>0.230446117849348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>193</v>
       </c>
@@ -7739,25 +5336,10 @@
         <v>25</v>
       </c>
       <c r="H156" s="2">
-        <v>63.928649</v>
-      </c>
-      <c r="I156" s="2">
-        <v>1.4344796</v>
-      </c>
-      <c r="J156" s="2">
-        <v>110.10477</v>
-      </c>
-      <c r="K156" s="2">
-        <v>108.35661</v>
-      </c>
-      <c r="L156" s="2">
-        <v>40.695008</v>
-      </c>
-      <c r="M156" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>-0.477517744269744</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="6">
         <v>194</v>
       </c>
@@ -7780,25 +5362,10 @@
         <v>28</v>
       </c>
       <c r="H157" s="2">
-        <v>64.008017</v>
-      </c>
-      <c r="I157" s="2">
-        <v>2.3347374</v>
-      </c>
-      <c r="J157" s="2">
-        <v>111.99415</v>
-      </c>
-      <c r="K157" s="2">
-        <v>111.24707</v>
-      </c>
-      <c r="L157" s="2">
-        <v>44.829191</v>
-      </c>
-      <c r="M157" s="2">
-        <v>47.821117</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>-0.488983020416982</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>195</v>
       </c>
@@ -7821,25 +5388,10 @@
         <v>27</v>
       </c>
       <c r="H158" s="2">
-        <v>64.124335</v>
-      </c>
-      <c r="I158" s="2">
-        <v>1.90751515</v>
-      </c>
-      <c r="J158" s="2">
-        <v>107.50452</v>
-      </c>
-      <c r="K158" s="2">
-        <v>102.82943</v>
-      </c>
-      <c r="L158" s="2">
-        <v>24.230473</v>
-      </c>
-      <c r="M158" s="2">
-        <v>27.659594</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>0.21049039027216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="6">
         <v>197</v>
       </c>
@@ -7862,25 +5414,10 @@
         <v>26</v>
       </c>
       <c r="H159" s="2">
-        <v>63.526645</v>
-      </c>
-      <c r="I159" s="2">
-        <v>3.0072809</v>
-      </c>
-      <c r="J159" s="2">
-        <v>108.24743</v>
-      </c>
-      <c r="K159" s="2">
-        <v>105.14118</v>
-      </c>
-      <c r="L159" s="2">
-        <v>31.449342</v>
-      </c>
-      <c r="M159" s="2">
-        <v>45.10839</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>0.0882470000179442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>198</v>
       </c>
@@ -7903,25 +5440,10 @@
         <v>18</v>
       </c>
       <c r="H160" s="2">
-        <v>63.372532</v>
-      </c>
-      <c r="I160" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J160" s="2">
-        <v>107.41529</v>
-      </c>
-      <c r="K160" s="2">
-        <v>105.10233</v>
-      </c>
-      <c r="L160" s="2">
-        <v>35.921818</v>
-      </c>
-      <c r="M160" s="2">
-        <v>44.15654</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>-0.203039317026574</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="6">
         <v>200</v>
       </c>
@@ -7944,25 +5466,10 @@
         <v>29</v>
       </c>
       <c r="H161" s="2">
-        <v>63.954314</v>
-      </c>
-      <c r="I161" s="2">
-        <v>2.2821854</v>
-      </c>
-      <c r="J161" s="2">
-        <v>109.87654</v>
-      </c>
-      <c r="K161" s="2">
-        <v>107.13343</v>
-      </c>
-      <c r="L161" s="2">
-        <v>28.58007</v>
-      </c>
-      <c r="M161" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>-0.111636957875083</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>201</v>
       </c>
@@ -7985,25 +5492,10 @@
         <v>25</v>
       </c>
       <c r="H162" s="2">
-        <v>64.025141</v>
-      </c>
-      <c r="I162" s="2">
-        <v>1.8950622</v>
-      </c>
-      <c r="J162" s="2">
-        <v>107.72267</v>
-      </c>
-      <c r="K162" s="2">
-        <v>105.75504</v>
-      </c>
-      <c r="L162" s="2">
-        <v>16.640508</v>
-      </c>
-      <c r="M162" s="2">
-        <v>27.449992</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>0.145597656146245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="6">
         <v>202</v>
       </c>
@@ -8026,25 +5518,10 @@
         <v>18</v>
       </c>
       <c r="H163" s="2">
-        <v>63.891723</v>
-      </c>
-      <c r="I163" s="2">
-        <v>1.4826865</v>
-      </c>
-      <c r="J163" s="2">
-        <v>108.70911</v>
-      </c>
-      <c r="K163" s="2">
-        <v>105.8173</v>
-      </c>
-      <c r="L163" s="2">
-        <v>35.736698</v>
-      </c>
-      <c r="M163" s="2">
-        <v>67.357315</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>-0.239124265876541</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>203</v>
       </c>
@@ -8066,26 +5543,11 @@
       <c r="G164" s="6">
         <v>21</v>
       </c>
-      <c r="H164" s="10">
-        <v>63.661057</v>
-      </c>
-      <c r="I164" s="10">
-        <v>1.78356</v>
-      </c>
-      <c r="J164" s="10">
-        <v>109.48005</v>
-      </c>
-      <c r="K164" s="10">
-        <v>109.10565</v>
-      </c>
-      <c r="L164" s="10">
-        <v>36.640572</v>
-      </c>
-      <c r="M164" s="10">
-        <v>34.920662</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="H164" s="2">
+        <v>0.0618867699840225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="6">
         <v>205</v>
       </c>
@@ -8108,25 +5570,10 @@
         <v>26</v>
       </c>
       <c r="H165" s="2">
-        <v>63.761103</v>
-      </c>
-      <c r="I165" s="2">
-        <v>1.9657014</v>
-      </c>
-      <c r="J165" s="2">
-        <v>106.92533</v>
-      </c>
-      <c r="K165" s="2">
-        <v>104.1111</v>
-      </c>
-      <c r="L165" s="2">
-        <v>27.536264</v>
-      </c>
-      <c r="M165" s="2">
-        <v>39.94744</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>0.093821251100125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>206</v>
       </c>
@@ -8149,25 +5596,10 @@
         <v>17</v>
       </c>
       <c r="H166" s="2">
-        <v>63.964651</v>
-      </c>
-      <c r="I166" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J166" s="2">
-        <v>107.72456</v>
-      </c>
-      <c r="K166" s="2">
-        <v>104.74997</v>
-      </c>
-      <c r="L166" s="2">
-        <v>20.0632</v>
-      </c>
-      <c r="M166" s="2">
-        <v>17.051679</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>0.115324390462335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="6">
         <v>207</v>
       </c>
@@ -8190,25 +5622,10 @@
         <v>26</v>
       </c>
       <c r="H167" s="2">
-        <v>63.793131</v>
-      </c>
-      <c r="I167" s="2">
-        <v>1.9457036</v>
-      </c>
-      <c r="J167" s="2">
-        <v>110.13629</v>
-      </c>
-      <c r="K167" s="2">
-        <v>108.15854</v>
-      </c>
-      <c r="L167" s="2">
-        <v>19.060177</v>
-      </c>
-      <c r="M167" s="2">
-        <v>25.550486</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>-0.236967296538578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>208</v>
       </c>
@@ -8231,25 +5648,10 @@
         <v>22</v>
       </c>
       <c r="H168" s="2">
-        <v>64.083702</v>
-      </c>
-      <c r="I168" s="2">
-        <v>2.3531676</v>
-      </c>
-      <c r="J168" s="2">
-        <v>109.05094</v>
-      </c>
-      <c r="K168" s="2">
-        <v>103.60089</v>
-      </c>
-      <c r="L168" s="2">
-        <v>41.392057</v>
-      </c>
-      <c r="M168" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>0.0114744481659085</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="6">
         <v>210</v>
       </c>
@@ -8272,25 +5674,10 @@
         <v>28</v>
       </c>
       <c r="H169" s="2">
-        <v>63.50311</v>
-      </c>
-      <c r="I169" s="2">
-        <v>1.4674327</v>
-      </c>
-      <c r="J169" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K169" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L169" s="2">
-        <v>21.315623</v>
-      </c>
-      <c r="M169" s="2">
-        <v>36.080139</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>-0.425630667485235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>211</v>
       </c>
@@ -8313,25 +5700,10 @@
         <v>20</v>
       </c>
       <c r="H170" s="2">
-        <v>64.070695</v>
-      </c>
-      <c r="I170" s="2">
-        <v>2.343604</v>
-      </c>
-      <c r="J170" s="2">
-        <v>110.81153</v>
-      </c>
-      <c r="K170" s="2">
-        <v>109.48547</v>
-      </c>
-      <c r="L170" s="2">
-        <v>21.966362</v>
-      </c>
-      <c r="M170" s="2">
-        <v>21.583336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>-0.145305016420005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="6">
         <v>212</v>
       </c>
@@ -8354,25 +5726,10 @@
         <v>28</v>
       </c>
       <c r="H171" s="2">
-        <v>64.144715</v>
-      </c>
-      <c r="I171" s="2">
-        <v>3.0411173</v>
-      </c>
-      <c r="J171" s="2">
-        <v>102.79707</v>
-      </c>
-      <c r="K171" s="2">
-        <v>95.194834</v>
-      </c>
-      <c r="L171" s="2">
-        <v>22.540493</v>
-      </c>
-      <c r="M171" s="2">
-        <v>45.849966</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>1.14432837288617</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>213</v>
       </c>
@@ -8395,25 +5752,10 @@
         <v>24</v>
       </c>
       <c r="H172" s="2">
-        <v>64.385541</v>
-      </c>
-      <c r="I172" s="2">
-        <v>1.4862224</v>
-      </c>
-      <c r="J172" s="2">
-        <v>109.80244</v>
-      </c>
-      <c r="K172" s="2">
-        <v>107.63431</v>
-      </c>
-      <c r="L172" s="2">
-        <v>35.292838</v>
-      </c>
-      <c r="M172" s="2">
-        <v>56.765415</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>-0.191261244987331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="6">
         <v>215</v>
       </c>
@@ -8436,25 +5778,10 @@
         <v>23</v>
       </c>
       <c r="H173" s="2">
-        <v>63.797949</v>
-      </c>
-      <c r="I173" s="2">
-        <v>1.5372509</v>
-      </c>
-      <c r="J173" s="2">
-        <v>108.06039</v>
-      </c>
-      <c r="K173" s="2">
-        <v>104.17501</v>
-      </c>
-      <c r="L173" s="2">
-        <v>29.970981</v>
-      </c>
-      <c r="M173" s="2">
-        <v>30.303528</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+        <v>-0.135747496460669</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>216</v>
       </c>
@@ -8477,25 +5804,10 @@
         <v>33</v>
       </c>
       <c r="H174" s="2">
-        <v>63.993613</v>
-      </c>
-      <c r="I174" s="2">
-        <v>1.6240028</v>
-      </c>
-      <c r="J174" s="2">
-        <v>109.56644</v>
-      </c>
-      <c r="K174" s="2">
-        <v>106.62973</v>
-      </c>
-      <c r="L174" s="2">
-        <v>33.571284</v>
-      </c>
-      <c r="M174" s="2">
-        <v>35.097722</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>-0.26107785548929</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="6">
         <v>217</v>
       </c>
@@ -8517,26 +5829,11 @@
       <c r="G175" s="6">
         <v>23</v>
       </c>
-      <c r="H175" s="16">
-        <v>64.042761</v>
-      </c>
-      <c r="I175" s="16">
-        <v>2.310931</v>
-      </c>
-      <c r="J175" s="16">
-        <v>110.85484</v>
-      </c>
-      <c r="K175" s="16">
-        <v>110.66642</v>
-      </c>
-      <c r="L175" s="16">
-        <v>18.858315</v>
-      </c>
-      <c r="M175" s="16">
-        <v>58.534985</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="H175" s="2">
+        <v>-0.065007550871229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>218</v>
       </c>
@@ -8559,25 +5856,10 @@
         <v>23</v>
       </c>
       <c r="H176" s="2">
-        <v>64.061749</v>
-      </c>
-      <c r="I176" s="2">
-        <v>1.6482549</v>
-      </c>
-      <c r="J176" s="2">
-        <v>110.18856</v>
-      </c>
-      <c r="K176" s="2">
-        <v>107.69251</v>
-      </c>
-      <c r="L176" s="2">
-        <v>26.753055</v>
-      </c>
-      <c r="M176" s="2">
-        <v>25.35483</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+        <v>-0.262689217902529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="6">
         <v>219</v>
       </c>
@@ -8600,25 +5882,10 @@
         <v>19</v>
       </c>
       <c r="H177" s="2">
-        <v>64.076751</v>
-      </c>
-      <c r="I177" s="2">
-        <v>1.6303198</v>
-      </c>
-      <c r="J177" s="2">
-        <v>109.85418</v>
-      </c>
-      <c r="K177" s="2">
-        <v>106.99406</v>
-      </c>
-      <c r="L177" s="2">
-        <v>34.465844</v>
-      </c>
-      <c r="M177" s="2">
-        <v>34.891128</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+        <v>-0.269717374855754</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>220</v>
       </c>
@@ -8641,25 +5908,10 @@
         <v>21</v>
       </c>
       <c r="H178" s="2">
-        <v>64.167502</v>
-      </c>
-      <c r="I178" s="2">
-        <v>2.4329679</v>
-      </c>
-      <c r="J178" s="2">
-        <v>110.93281</v>
-      </c>
-      <c r="K178" s="2">
-        <v>111.73021</v>
-      </c>
-      <c r="L178" s="2">
-        <v>16.713865</v>
-      </c>
-      <c r="M178" s="2">
-        <v>53.132752</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+        <v>-0.0891861770727292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="6">
         <v>221</v>
       </c>
@@ -8682,25 +5934,10 @@
         <v>17</v>
       </c>
       <c r="H179" s="2">
-        <v>64.24671</v>
-      </c>
-      <c r="I179" s="2">
-        <v>2.4687473</v>
-      </c>
-      <c r="J179" s="2">
-        <v>110.00509</v>
-      </c>
-      <c r="K179" s="2">
-        <v>107.40156</v>
-      </c>
-      <c r="L179" s="2">
-        <v>26.466434</v>
-      </c>
-      <c r="M179" s="2">
-        <v>22.901999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13">
+        <v>0.0426468015419411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>223</v>
       </c>
@@ -8722,26 +5959,11 @@
       <c r="G180" s="6">
         <v>19</v>
       </c>
-      <c r="H180" s="16">
-        <v>64.418766</v>
-      </c>
-      <c r="I180" s="16">
-        <v>2.3388971</v>
-      </c>
-      <c r="J180" s="16">
-        <v>110.81039</v>
-      </c>
-      <c r="K180" s="16">
-        <v>109.75626</v>
-      </c>
-      <c r="L180" s="16">
-        <v>29.232867</v>
-      </c>
-      <c r="M180" s="16">
-        <v>39.032498</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="H180" s="2">
+        <v>-0.153490406406239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="6">
         <v>224</v>
       </c>
@@ -8764,25 +5986,10 @@
         <v>16</v>
       </c>
       <c r="H181" s="2">
-        <v>64.354177</v>
-      </c>
-      <c r="I181" s="2">
-        <v>2.5704695</v>
-      </c>
-      <c r="J181" s="2">
-        <v>110.82165</v>
-      </c>
-      <c r="K181" s="2">
-        <v>111.17845</v>
-      </c>
-      <c r="L181" s="2">
-        <v>32.744931</v>
-      </c>
-      <c r="M181" s="2">
-        <v>46.705911</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
+        <v>-0.0855635901391758</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>225</v>
       </c>
@@ -8805,25 +6012,10 @@
         <v>15</v>
       </c>
       <c r="H182" s="2">
-        <v>64.187482</v>
-      </c>
-      <c r="I182" s="2">
-        <v>2.4890591</v>
-      </c>
-      <c r="J182" s="2">
-        <v>110.05937</v>
-      </c>
-      <c r="K182" s="2">
-        <v>107.1897</v>
-      </c>
-      <c r="L182" s="2">
-        <v>30.047149</v>
-      </c>
-      <c r="M182" s="2">
-        <v>42.072378</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
+        <v>0.0042580583273853</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="6">
         <v>226</v>
       </c>
@@ -8846,25 +6038,10 @@
         <v>18</v>
       </c>
       <c r="H183" s="2">
-        <v>63.744025</v>
-      </c>
-      <c r="I183" s="2">
-        <v>2.2626624</v>
-      </c>
-      <c r="J183" s="2">
-        <v>104.26984</v>
-      </c>
-      <c r="K183" s="2">
-        <v>103.11366</v>
-      </c>
-      <c r="L183" s="2">
-        <v>27.928371</v>
-      </c>
-      <c r="M183" s="2">
-        <v>35.100412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
+        <v>0.43783596962991</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>227</v>
       </c>
@@ -8887,25 +6064,10 @@
         <v>18</v>
       </c>
       <c r="H184" s="2">
-        <v>64.462013</v>
-      </c>
-      <c r="I184" s="2">
-        <v>1.6558264</v>
-      </c>
-      <c r="J184" s="2">
-        <v>111.98875</v>
-      </c>
-      <c r="K184" s="2">
-        <v>110.89901</v>
-      </c>
-      <c r="L184" s="2">
-        <v>25.978735</v>
-      </c>
-      <c r="M184" s="2">
-        <v>41.95398</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
+        <v>-0.333985883868998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="6">
         <v>228</v>
       </c>
@@ -8928,25 +6090,10 @@
         <v>28</v>
       </c>
       <c r="H185" s="2">
-        <v>64.317601</v>
-      </c>
-      <c r="I185" s="2">
-        <v>1.6010459</v>
-      </c>
-      <c r="J185" s="2">
-        <v>109.49663</v>
-      </c>
-      <c r="K185" s="2">
-        <v>107.17653</v>
-      </c>
-      <c r="L185" s="2">
-        <v>39.733788</v>
-      </c>
-      <c r="M185" s="2">
-        <v>35.228978</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
+        <v>-0.192527814576836</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>229</v>
       </c>
@@ -8969,25 +6116,10 @@
         <v>15</v>
       </c>
       <c r="H186" s="2">
-        <v>63.521714</v>
-      </c>
-      <c r="I186" s="2">
-        <v>1.8704814</v>
-      </c>
-      <c r="J186" s="2">
-        <v>107.57584</v>
-      </c>
-      <c r="K186" s="2">
-        <v>102.96916</v>
-      </c>
-      <c r="L186" s="2">
-        <v>37.976206</v>
-      </c>
-      <c r="M186" s="2">
-        <v>42.96214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
+        <v>-0.142928647334412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="6">
         <v>230</v>
       </c>
@@ -9009,26 +6141,11 @@
       <c r="G187" s="6">
         <v>38</v>
       </c>
-      <c r="H187" s="9">
-        <v>63.819266</v>
-      </c>
-      <c r="I187" s="9">
-        <v>1.7508405</v>
-      </c>
-      <c r="J187" s="9">
-        <v>109.08276</v>
-      </c>
-      <c r="K187" s="9">
-        <v>105.10236</v>
-      </c>
-      <c r="L187" s="9">
-        <v>22.233306</v>
-      </c>
-      <c r="M187" s="9">
-        <v>30.149766</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="H187" s="2">
+        <v>0.658224983568128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>232</v>
       </c>
@@ -9051,25 +6168,10 @@
         <v>30</v>
       </c>
       <c r="H188" s="2">
-        <v>64.272965</v>
-      </c>
-      <c r="I188" s="2">
-        <v>1.7748274</v>
-      </c>
-      <c r="J188" s="2">
-        <v>109.1559</v>
-      </c>
-      <c r="K188" s="2">
-        <v>107.43546</v>
-      </c>
-      <c r="L188" s="2">
-        <v>20.786038</v>
-      </c>
-      <c r="M188" s="2">
-        <v>24.33799</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
+        <v>0.00357776390272307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="6">
         <v>233</v>
       </c>
@@ -9092,25 +6194,10 @@
         <v>24</v>
       </c>
       <c r="H189" s="2">
-        <v>64.237775</v>
-      </c>
-      <c r="I189" s="2">
-        <v>4.6651294</v>
-      </c>
-      <c r="J189" s="2">
-        <v>111.51205</v>
-      </c>
-      <c r="K189" s="2">
-        <v>111.39276</v>
-      </c>
-      <c r="L189" s="2">
-        <v>20.685566</v>
-      </c>
-      <c r="M189" s="2">
-        <v>32.040407</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
+        <v>0.415322776079808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>234</v>
       </c>
@@ -9133,25 +6220,10 @@
         <v>15</v>
       </c>
       <c r="H190" s="2">
-        <v>63.782284</v>
-      </c>
-      <c r="I190" s="2">
-        <v>1.4157693</v>
-      </c>
-      <c r="J190" s="2">
-        <v>105.18707</v>
-      </c>
-      <c r="K190" s="2">
-        <v>100.79663</v>
-      </c>
-      <c r="L190" s="2">
-        <v>31.33392</v>
-      </c>
-      <c r="M190" s="2">
-        <v>53.392034</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
+        <v>0.177175738095242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="6">
         <v>235</v>
       </c>
@@ -9174,25 +6246,10 @@
         <v>24</v>
       </c>
       <c r="H191" s="2">
-        <v>63.946273</v>
-      </c>
-      <c r="I191" s="2">
-        <v>4.8203862</v>
-      </c>
-      <c r="J191" s="2">
-        <v>104.64441</v>
-      </c>
-      <c r="K191" s="2">
-        <v>97.383132</v>
-      </c>
-      <c r="L191" s="2">
-        <v>19.60893</v>
-      </c>
-      <c r="M191" s="2">
-        <v>32.219983</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+        <v>1.30956587483795</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>236</v>
       </c>
@@ -9215,25 +6272,10 @@
         <v>19</v>
       </c>
       <c r="H192" s="2">
-        <v>63.73644</v>
-      </c>
-      <c r="I192" s="2">
-        <v>2.4732309</v>
-      </c>
-      <c r="J192" s="2">
-        <v>111.23198</v>
-      </c>
-      <c r="K192" s="2">
-        <v>110.75984</v>
-      </c>
-      <c r="L192" s="2">
-        <v>29.344037</v>
-      </c>
-      <c r="M192" s="2">
-        <v>31.125778</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
+        <v>-0.362763149178613</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="6">
         <v>237</v>
       </c>
@@ -9256,25 +6298,10 @@
         <v>27</v>
       </c>
       <c r="H193" s="2">
-        <v>64.355355</v>
-      </c>
-      <c r="I193" s="2">
-        <v>2.2851054</v>
-      </c>
-      <c r="J193" s="2">
-        <v>110.4668</v>
-      </c>
-      <c r="K193" s="2">
-        <v>107.90822</v>
-      </c>
-      <c r="L193" s="2">
-        <v>26.778748</v>
-      </c>
-      <c r="M193" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
+        <v>-0.0145006034416364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>238</v>
       </c>
@@ -9297,25 +6324,10 @@
         <v>16</v>
       </c>
       <c r="H194" s="2">
-        <v>64.641574</v>
-      </c>
-      <c r="I194" s="2">
-        <v>1.9228499</v>
-      </c>
-      <c r="J194" s="2">
-        <v>111.78684</v>
-      </c>
-      <c r="K194" s="2">
-        <v>113.03374</v>
-      </c>
-      <c r="L194" s="2">
-        <v>30.714467</v>
-      </c>
-      <c r="M194" s="2">
-        <v>45.730188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
+        <v>-0.255296641962696</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="6">
         <v>239</v>
       </c>
@@ -9338,25 +6350,10 @@
         <v>25</v>
       </c>
       <c r="H195" s="2">
-        <v>63.697728</v>
-      </c>
-      <c r="I195" s="2">
-        <v>1.7108129</v>
-      </c>
-      <c r="J195" s="2">
-        <v>108.24143</v>
-      </c>
-      <c r="K195" s="2">
-        <v>105.48409</v>
-      </c>
-      <c r="L195" s="2">
-        <v>23.827373</v>
-      </c>
-      <c r="M195" s="2">
-        <v>35.77066</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
+        <v>-0.125741629715451</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>240</v>
       </c>
@@ -9379,25 +6376,10 @@
         <v>18</v>
       </c>
       <c r="H196" s="2">
-        <v>63.778657</v>
-      </c>
-      <c r="I196" s="2">
-        <v>2.7705092</v>
-      </c>
-      <c r="J196" s="2">
-        <v>103.69397</v>
-      </c>
-      <c r="K196" s="2">
-        <v>100.18603</v>
-      </c>
-      <c r="L196" s="2">
-        <v>19.696966</v>
-      </c>
-      <c r="M196" s="2">
-        <v>22.125021</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
+        <v>0.754652045857387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="6">
         <v>241</v>
       </c>
@@ -9420,25 +6402,10 @@
         <v>16</v>
       </c>
       <c r="H197" s="2">
-        <v>64.343967</v>
-      </c>
-      <c r="I197" s="2">
-        <v>1.8142082</v>
-      </c>
-      <c r="J197" s="2">
-        <v>110.31486</v>
-      </c>
-      <c r="K197" s="2">
-        <v>111.442</v>
-      </c>
-      <c r="L197" s="2">
-        <v>23.529239</v>
-      </c>
-      <c r="M197" s="2">
-        <v>24.423936</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
+        <v>-0.175631954106027</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>242</v>
       </c>
@@ -9461,25 +6428,10 @@
         <v>15</v>
       </c>
       <c r="H198" s="2">
-        <v>64.178219</v>
-      </c>
-      <c r="I198" s="2">
-        <v>1.6590204</v>
-      </c>
-      <c r="J198" s="2">
-        <v>110.30415</v>
-      </c>
-      <c r="K198" s="2">
-        <v>108.22598</v>
-      </c>
-      <c r="L198" s="2">
-        <v>30.769482</v>
-      </c>
-      <c r="M198" s="2">
-        <v>36.274894</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
+        <v>-0.263210780766792</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="6">
         <v>243</v>
       </c>
@@ -9502,25 +6454,10 @@
         <v>18</v>
       </c>
       <c r="H199" s="2">
-        <v>64.157688</v>
-      </c>
-      <c r="I199" s="2">
-        <v>1.5810682</v>
-      </c>
-      <c r="J199" s="2">
-        <v>109.1263</v>
-      </c>
-      <c r="K199" s="2">
-        <v>107.22305</v>
-      </c>
-      <c r="L199" s="2">
-        <v>27.59831</v>
-      </c>
-      <c r="M199" s="2">
-        <v>39.445871</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
+        <v>-0.129341103294783</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>245</v>
       </c>
@@ -9543,25 +6480,10 @@
         <v>23</v>
       </c>
       <c r="H200" s="2">
-        <v>64.223982</v>
-      </c>
-      <c r="I200" s="2">
-        <v>2.0199411</v>
-      </c>
-      <c r="J200" s="2">
-        <v>110.30285</v>
-      </c>
-      <c r="K200" s="2">
-        <v>108.38196</v>
-      </c>
-      <c r="L200" s="2">
-        <v>14.909761</v>
-      </c>
-      <c r="M200" s="2">
-        <v>29.090425</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
+        <v>-0.0377420098359847</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="6">
         <v>246</v>
       </c>
@@ -9584,25 +6506,10 @@
         <v>20</v>
       </c>
       <c r="H201" s="2">
-        <v>64.39045</v>
-      </c>
-      <c r="I201" s="2">
-        <v>1.8909876</v>
-      </c>
-      <c r="J201" s="2">
-        <v>110.42294</v>
-      </c>
-      <c r="K201" s="2">
-        <v>108.92254</v>
-      </c>
-      <c r="L201" s="2">
-        <v>21.092113</v>
-      </c>
-      <c r="M201" s="2">
-        <v>32.676019</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
+        <v>-0.0745974791953546</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>247</v>
       </c>
@@ -9625,25 +6532,10 @@
         <v>19</v>
       </c>
       <c r="H202" s="2">
-        <v>64.301092</v>
-      </c>
-      <c r="I202" s="2">
-        <v>4.441586</v>
-      </c>
-      <c r="J202" s="2">
-        <v>106.4953</v>
-      </c>
-      <c r="K202" s="2">
-        <v>100.64449</v>
-      </c>
-      <c r="L202" s="2">
-        <v>20.915245</v>
-      </c>
-      <c r="M202" s="2">
-        <v>34.613768</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
+        <v>1.09443932374334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="6">
         <v>248</v>
       </c>
@@ -9666,25 +6558,10 @@
         <v>23</v>
       </c>
       <c r="H203" s="2">
-        <v>64.240607</v>
-      </c>
-      <c r="I203" s="2">
-        <v>1.5756057</v>
-      </c>
-      <c r="J203" s="2">
-        <v>111.6256</v>
-      </c>
-      <c r="K203" s="2">
-        <v>111.97041</v>
-      </c>
-      <c r="L203" s="2">
-        <v>33.526683</v>
-      </c>
-      <c r="M203" s="2">
-        <v>43.808007</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
+        <v>-0.484421315583332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>249</v>
       </c>
@@ -9707,25 +6584,10 @@
         <v>22</v>
       </c>
       <c r="H204" s="2">
-        <v>64.105736</v>
-      </c>
-      <c r="I204" s="2">
-        <v>3.1520245</v>
-      </c>
-      <c r="J204" s="2">
-        <v>111.60273</v>
-      </c>
-      <c r="K204" s="2">
-        <v>110.15801</v>
-      </c>
-      <c r="L204" s="2">
-        <v>16.624944</v>
-      </c>
-      <c r="M204" s="2">
-        <v>21.599038</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
+        <v>0.0233621503868256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="6">
         <v>250</v>
       </c>
@@ -9748,25 +6610,10 @@
         <v>18</v>
       </c>
       <c r="H205" s="2">
-        <v>64.374687</v>
-      </c>
-      <c r="I205" s="2">
-        <v>1.418415</v>
-      </c>
-      <c r="J205" s="2">
-        <v>109.9846</v>
-      </c>
-      <c r="K205" s="2">
-        <v>108.82842</v>
-      </c>
-      <c r="L205" s="2">
-        <v>27.109072</v>
-      </c>
-      <c r="M205" s="2">
-        <v>39.642621</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
+        <v>-0.199227052206404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>251</v>
       </c>
@@ -9789,25 +6636,10 @@
         <v>25</v>
       </c>
       <c r="H206" s="2">
-        <v>63.701236</v>
-      </c>
-      <c r="I206" s="2">
-        <v>1.6351158</v>
-      </c>
-      <c r="J206" s="2">
-        <v>108.00482</v>
-      </c>
-      <c r="K206" s="2">
-        <v>103.37202</v>
-      </c>
-      <c r="L206" s="2">
-        <v>43.295558</v>
-      </c>
-      <c r="M206" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
+        <v>-0.22726920011416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="6">
         <v>252</v>
       </c>
@@ -9830,25 +6662,10 @@
         <v>16</v>
       </c>
       <c r="H207" s="2">
-        <v>64.043832</v>
-      </c>
-      <c r="I207" s="2">
-        <v>1.5910101</v>
-      </c>
-      <c r="J207" s="2">
-        <v>108.85209</v>
-      </c>
-      <c r="K207" s="2">
-        <v>103.28408</v>
-      </c>
-      <c r="L207" s="2">
-        <v>34.033669</v>
-      </c>
-      <c r="M207" s="2">
-        <v>48.732274</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
+        <v>-0.109043526274209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>253</v>
       </c>
@@ -9871,25 +6688,10 @@
         <v>30</v>
       </c>
       <c r="H208" s="2">
-        <v>64.310866</v>
-      </c>
-      <c r="I208" s="2">
-        <v>1.465587</v>
-      </c>
-      <c r="J208" s="2">
-        <v>110.23338</v>
-      </c>
-      <c r="K208" s="2">
-        <v>110.28147</v>
-      </c>
-      <c r="L208" s="2">
-        <v>37.605276</v>
-      </c>
-      <c r="M208" s="2">
-        <v>35.099067</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
+        <v>-0.349092631329692</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="6">
         <v>254</v>
       </c>
@@ -9912,25 +6714,10 @@
         <v>17</v>
       </c>
       <c r="H209" s="2">
-        <v>64.069923</v>
-      </c>
-      <c r="I209" s="2">
-        <v>2.3744697</v>
-      </c>
-      <c r="J209" s="2">
-        <v>107.13013</v>
-      </c>
-      <c r="K209" s="2">
-        <v>101.27029</v>
-      </c>
-      <c r="L209" s="2">
-        <v>31.480177</v>
-      </c>
-      <c r="M209" s="2">
-        <v>37.860525</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+        <v>0.324905900382849</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>255</v>
       </c>
@@ -9953,25 +6740,10 @@
         <v>26</v>
       </c>
       <c r="H210" s="2">
-        <v>64.288111</v>
-      </c>
-      <c r="I210" s="2">
-        <v>1.7136278</v>
-      </c>
-      <c r="J210" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K210" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L210" s="2">
-        <v>23.397944</v>
-      </c>
-      <c r="M210" s="2">
-        <v>28.595866</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+        <v>-0.0765902371640931</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="6">
         <v>257</v>
       </c>
@@ -9994,25 +6766,10 @@
         <v>28</v>
       </c>
       <c r="H211" s="2">
-        <v>64.017023</v>
-      </c>
-      <c r="I211" s="2">
-        <v>2.9636522</v>
-      </c>
-      <c r="J211" s="2">
-        <v>107.52536</v>
-      </c>
-      <c r="K211" s="2">
-        <v>108.21755</v>
-      </c>
-      <c r="L211" s="2">
-        <v>15.596396</v>
-      </c>
-      <c r="M211" s="2">
-        <v>21.613919</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+        <v>0.387855211958577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>258</v>
       </c>
@@ -10035,25 +6792,10 @@
         <v>23</v>
       </c>
       <c r="H212" s="2">
-        <v>64.289275</v>
-      </c>
-      <c r="I212" s="2">
-        <v>2.5984381</v>
-      </c>
-      <c r="J212" s="2">
-        <v>109.37498</v>
-      </c>
-      <c r="K212" s="2">
-        <v>107.73995</v>
-      </c>
-      <c r="L212" s="2">
-        <v>16.37062</v>
-      </c>
-      <c r="M212" s="2">
-        <v>18.380073</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>0.222710744692402</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="6">
         <v>261</v>
       </c>
@@ -10076,25 +6818,10 @@
         <v>20</v>
       </c>
       <c r="H213" s="2">
-        <v>63.862757</v>
-      </c>
-      <c r="I213" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J213" s="2">
-        <v>110.4205</v>
-      </c>
-      <c r="K213" s="2">
-        <v>109.27195</v>
-      </c>
-      <c r="L213" s="2">
-        <v>35.357842</v>
-      </c>
-      <c r="M213" s="2">
-        <v>40.327607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
+        <v>-0.389158055622662</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>262</v>
       </c>
@@ -10117,25 +6844,10 @@
         <v>18</v>
       </c>
       <c r="H214" s="2">
-        <v>63.825825</v>
-      </c>
-      <c r="I214" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J214" s="2">
-        <v>108.21685</v>
-      </c>
-      <c r="K214" s="2">
-        <v>107.55946</v>
-      </c>
-      <c r="L214" s="2">
-        <v>35.337483</v>
-      </c>
-      <c r="M214" s="2">
-        <v>31.673991</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
+        <v>-0.156173028528769</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="6">
         <v>263</v>
       </c>
@@ -10158,25 +6870,10 @@
         <v>18</v>
       </c>
       <c r="H215" s="2">
-        <v>64.634325</v>
-      </c>
-      <c r="I215" s="2">
-        <v>1.5449318</v>
-      </c>
-      <c r="J215" s="2">
-        <v>111.06551</v>
-      </c>
-      <c r="K215" s="2">
-        <v>109.83824</v>
-      </c>
-      <c r="L215" s="2">
-        <v>37.975355</v>
-      </c>
-      <c r="M215" s="2">
-        <v>32.969926</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
+        <v>-0.27904550006301</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="6">
         <v>264</v>
       </c>
@@ -10199,25 +6896,10 @@
         <v>28</v>
       </c>
       <c r="H216" s="2">
-        <v>64.061242</v>
-      </c>
-      <c r="I216" s="2">
-        <v>2.337802</v>
-      </c>
-      <c r="J216" s="2">
-        <v>110.45223</v>
-      </c>
-      <c r="K216" s="2">
-        <v>109.53925</v>
-      </c>
-      <c r="L216" s="2">
-        <v>28.423624</v>
-      </c>
-      <c r="M216" s="2">
-        <v>34.851348</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13">
+        <v>-0.160558534747013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="6">
         <v>266</v>
       </c>
@@ -10239,26 +6921,11 @@
       <c r="G217" s="6">
         <v>25</v>
       </c>
-      <c r="H217" s="12">
-        <v>64.144715</v>
-      </c>
-      <c r="I217" s="12">
-        <v>1.4456301</v>
-      </c>
-      <c r="J217" s="12">
-        <v>110.98655</v>
-      </c>
-      <c r="K217" s="12">
-        <v>112.322</v>
-      </c>
-      <c r="L217" s="12">
-        <v>13.522052</v>
-      </c>
-      <c r="M217" s="12">
-        <v>15.943242</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="H217" s="2">
+        <v>0.49585226524055</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="6">
         <v>267</v>
       </c>
@@ -10281,25 +6948,10 @@
         <v>17</v>
       </c>
       <c r="H218" s="2">
-        <v>64.232938</v>
-      </c>
-      <c r="I218" s="2">
-        <v>1.5870857</v>
-      </c>
-      <c r="J218" s="2">
-        <v>111.40927</v>
-      </c>
-      <c r="K218" s="2">
-        <v>112.28045</v>
-      </c>
-      <c r="L218" s="2">
-        <v>27.414081</v>
-      </c>
-      <c r="M218" s="2">
-        <v>26.829799</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13">
+        <v>-0.429755446769621</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="6">
         <v>268</v>
       </c>
@@ -10322,25 +6974,10 @@
         <v>15</v>
       </c>
       <c r="H219" s="2">
-        <v>64.237603</v>
-      </c>
-      <c r="I219" s="2">
-        <v>1.4082462</v>
-      </c>
-      <c r="J219" s="2">
-        <v>110.46888</v>
-      </c>
-      <c r="K219" s="2">
-        <v>109.0599</v>
-      </c>
-      <c r="L219" s="2">
-        <v>25.838549</v>
-      </c>
-      <c r="M219" s="2">
-        <v>20.99722</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>-0.305414456385708</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="6">
         <v>270</v>
       </c>
@@ -10363,25 +7000,10 @@
         <v>32</v>
       </c>
       <c r="H220" s="2">
-        <v>64.014257</v>
-      </c>
-      <c r="I220" s="2">
-        <v>1.8462276</v>
-      </c>
-      <c r="J220" s="2">
-        <v>109.25899</v>
-      </c>
-      <c r="K220" s="2">
-        <v>105.44489</v>
-      </c>
-      <c r="L220" s="2">
-        <v>22.420951</v>
-      </c>
-      <c r="M220" s="2">
-        <v>26.009491</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+        <v>-0.0601453471138808</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="6">
         <v>271</v>
       </c>
@@ -10404,25 +7026,10 @@
         <v>27</v>
       </c>
       <c r="H221" s="2">
-        <v>64.233648</v>
-      </c>
-      <c r="I221" s="2">
-        <v>2.1143948</v>
-      </c>
-      <c r="J221" s="2">
-        <v>107.89104</v>
-      </c>
-      <c r="K221" s="2">
-        <v>104.16673</v>
-      </c>
-      <c r="L221" s="2">
-        <v>25.248098</v>
-      </c>
-      <c r="M221" s="2">
-        <v>26.618453</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>0.231972274651639</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="6">
         <v>273</v>
       </c>
@@ -10445,25 +7052,10 @@
         <v>25</v>
       </c>
       <c r="H222" s="2">
-        <v>63.68666</v>
-      </c>
-      <c r="I222" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J222" s="2">
-        <v>106.45789</v>
-      </c>
-      <c r="K222" s="2">
-        <v>105.87642</v>
-      </c>
-      <c r="L222" s="2">
-        <v>23.879058</v>
-      </c>
-      <c r="M222" s="2">
-        <v>27.101944</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <v>0.0826935928486083</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="6">
         <v>274</v>
       </c>
@@ -10486,25 +7078,10 @@
         <v>17</v>
       </c>
       <c r="H223" s="2">
-        <v>63.766153</v>
-      </c>
-      <c r="I223" s="2">
-        <v>1.5603705</v>
-      </c>
-      <c r="J223" s="2">
-        <v>108.26467</v>
-      </c>
-      <c r="K223" s="2">
-        <v>102.28021</v>
-      </c>
-      <c r="L223" s="2">
-        <v>33.451574</v>
-      </c>
-      <c r="M223" s="2">
-        <v>23.323341</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+        <v>-0.153066787904167</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="6">
         <v>275</v>
       </c>
@@ -10527,25 +7104,10 @@
         <v>22</v>
       </c>
       <c r="H224" s="2">
-        <v>63.793298</v>
-      </c>
-      <c r="I224" s="2">
-        <v>1.3851887</v>
-      </c>
-      <c r="J224" s="2">
-        <v>103.82497</v>
-      </c>
-      <c r="K224" s="2">
-        <v>107.41828</v>
-      </c>
-      <c r="L224" s="2">
-        <v>37.913146</v>
-      </c>
-      <c r="M224" s="2">
-        <v>47.795368</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13">
+        <v>0.117888606226107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="6">
         <v>276</v>
       </c>
@@ -10568,25 +7130,10 @@
         <v>27</v>
       </c>
       <c r="H225" s="2">
-        <v>63.977941</v>
-      </c>
-      <c r="I225" s="2">
-        <v>2.6448337</v>
-      </c>
-      <c r="J225" s="2">
-        <v>110.24916</v>
-      </c>
-      <c r="K225" s="2">
-        <v>108.38858</v>
-      </c>
-      <c r="L225" s="2">
-        <v>18.948974</v>
-      </c>
-      <c r="M225" s="2">
-        <v>21.654298</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
+        <v>-0.00415042072983608</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="6">
         <v>277</v>
       </c>
@@ -10609,25 +7156,10 @@
         <v>20</v>
       </c>
       <c r="H226" s="2">
-        <v>63.588344</v>
-      </c>
-      <c r="I226" s="2">
-        <v>1.9732271</v>
-      </c>
-      <c r="J226" s="2">
-        <v>108.56598</v>
-      </c>
-      <c r="K226" s="2">
-        <v>107.31134</v>
-      </c>
-      <c r="L226" s="2">
-        <v>31.275027</v>
-      </c>
-      <c r="M226" s="2">
-        <v>33.871234</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
+        <v>-0.229250666780112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="6">
         <v>278</v>
       </c>
@@ -10650,25 +7182,10 @@
         <v>30</v>
       </c>
       <c r="H227" s="2">
-        <v>63.836182</v>
-      </c>
-      <c r="I227" s="2">
-        <v>2.1188136</v>
-      </c>
-      <c r="J227" s="2">
-        <v>104.74252</v>
-      </c>
-      <c r="K227" s="2">
-        <v>99.996319</v>
-      </c>
-      <c r="L227" s="2">
-        <v>38.421619</v>
-      </c>
-      <c r="M227" s="2">
-        <v>29.117153</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
+        <v>0.371690540089798</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="6">
         <v>282</v>
       </c>
@@ -10691,25 +7208,10 @@
         <v>28</v>
       </c>
       <c r="H228" s="2">
-        <v>64.181037</v>
-      </c>
-      <c r="I228" s="2">
-        <v>2.0049001</v>
-      </c>
-      <c r="J228" s="2">
-        <v>110.06493</v>
-      </c>
-      <c r="K228" s="2">
-        <v>109.34198</v>
-      </c>
-      <c r="L228" s="2">
-        <v>19.597171</v>
-      </c>
-      <c r="M228" s="2">
-        <v>42.764119</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13">
+        <v>-0.0850843490347393</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="6">
         <v>283</v>
       </c>
@@ -10732,25 +7234,10 @@
         <v>27</v>
       </c>
       <c r="H229" s="2">
-        <v>64.086245</v>
-      </c>
-      <c r="I229" s="2">
-        <v>1.7653854</v>
-      </c>
-      <c r="J229" s="2">
-        <v>111.74619</v>
-      </c>
-      <c r="K229" s="2">
-        <v>112.64892</v>
-      </c>
-      <c r="L229" s="2">
-        <v>34.717337</v>
-      </c>
-      <c r="M229" s="2">
-        <v>47.900766</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+        <v>-0.529589398254033</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="6">
         <v>284</v>
       </c>
@@ -10773,25 +7260,10 @@
         <v>27</v>
       </c>
       <c r="H230" s="2">
-        <v>64.267063</v>
-      </c>
-      <c r="I230" s="2">
-        <v>1.6854871</v>
-      </c>
-      <c r="J230" s="2">
-        <v>109.57246</v>
-      </c>
-      <c r="K230" s="2">
-        <v>108.01624</v>
-      </c>
-      <c r="L230" s="2">
-        <v>28.44948</v>
-      </c>
-      <c r="M230" s="2">
-        <v>40.709848</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13">
+        <v>-0.126234287132603</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="6">
         <v>285</v>
       </c>
@@ -10814,25 +7286,10 @@
         <v>18</v>
       </c>
       <c r="H231" s="2">
-        <v>63.687788</v>
-      </c>
-      <c r="I231" s="2">
-        <v>1.9090908</v>
-      </c>
-      <c r="J231" s="2">
-        <v>109.69301</v>
-      </c>
-      <c r="K231" s="2">
-        <v>101.29399</v>
-      </c>
-      <c r="L231" s="2">
-        <v>15.020736</v>
-      </c>
-      <c r="M231" s="2">
-        <v>26.453317</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13">
+        <v>-0.0713343291737635</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="6">
         <v>286</v>
       </c>
@@ -10855,25 +7312,10 @@
         <v>30</v>
       </c>
       <c r="H232" s="2">
-        <v>64.307358</v>
-      </c>
-      <c r="I232" s="2">
-        <v>3.5106415</v>
-      </c>
-      <c r="J232" s="2">
-        <v>109.34289</v>
-      </c>
-      <c r="K232" s="2">
-        <v>104.10943</v>
-      </c>
-      <c r="L232" s="2">
-        <v>14.82318</v>
-      </c>
-      <c r="M232" s="2">
-        <v>10.741833</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13">
+        <v>0.547663957519621</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="6">
         <v>287</v>
       </c>
@@ -10896,25 +7338,10 @@
         <v>24</v>
       </c>
       <c r="H233" s="2">
-        <v>64.239248</v>
-      </c>
-      <c r="I233" s="2">
-        <v>1.8939678</v>
-      </c>
-      <c r="J233" s="2">
-        <v>109.22398</v>
-      </c>
-      <c r="K233" s="2">
-        <v>108.43316</v>
-      </c>
-      <c r="L233" s="2">
-        <v>37.372971</v>
-      </c>
-      <c r="M233" s="2">
-        <v>44.156711</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13">
+        <v>-0.125923699036588</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="6">
         <v>288</v>
       </c>
@@ -10937,25 +7364,10 @@
         <v>19</v>
       </c>
       <c r="H234" s="2">
-        <v>64.259584</v>
-      </c>
-      <c r="I234" s="2">
-        <v>1.3177537</v>
-      </c>
-      <c r="J234" s="2">
-        <v>110.98693</v>
-      </c>
-      <c r="K234" s="2">
-        <v>110.55529</v>
-      </c>
-      <c r="L234" s="2">
-        <v>20.11472</v>
-      </c>
-      <c r="M234" s="2">
-        <v>32.868739</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13">
+        <v>-0.352156693964603</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="6">
         <v>290</v>
       </c>
@@ -10977,26 +7389,11 @@
       <c r="G235" s="6">
         <v>20</v>
       </c>
-      <c r="H235" s="15">
-        <v>64.144715</v>
-      </c>
-      <c r="I235" s="15">
-        <v>1.90751515</v>
-      </c>
-      <c r="J235" s="15">
-        <v>108.61113</v>
-      </c>
-      <c r="K235" s="15">
-        <v>105.10236</v>
-      </c>
-      <c r="L235" s="15">
-        <v>24.028923</v>
-      </c>
-      <c r="M235" s="15">
-        <v>34.920662</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="H235" s="2">
+        <v>-0.344472542873201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="6">
         <v>292</v>
       </c>
@@ -11018,26 +7415,11 @@
       <c r="G236" s="6">
         <v>25</v>
       </c>
-      <c r="H236" s="12">
-        <v>64.501307</v>
-      </c>
-      <c r="I236" s="12">
-        <v>1.834465</v>
-      </c>
-      <c r="J236" s="12">
-        <v>111.40172</v>
-      </c>
-      <c r="K236" s="12">
-        <v>112.38307</v>
-      </c>
-      <c r="L236" s="12">
-        <v>32.753808</v>
-      </c>
-      <c r="M236" s="12">
-        <v>33.42243</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="H236" s="2">
+        <v>-0.0637586866471407</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="6">
         <v>293</v>
       </c>
@@ -11060,25 +7442,10 @@
         <v>27</v>
       </c>
       <c r="H237" s="2">
-        <v>64.086252</v>
-      </c>
-      <c r="I237" s="2">
-        <v>2.2613884</v>
-      </c>
-      <c r="J237" s="2">
-        <v>111.13572</v>
-      </c>
-      <c r="K237" s="2">
-        <v>111.41244</v>
-      </c>
-      <c r="L237" s="2">
-        <v>28.838873</v>
-      </c>
-      <c r="M237" s="2">
-        <v>36.917468</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13">
+        <v>-0.277921221203683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="6">
         <v>294</v>
       </c>
@@ -11101,25 +7468,10 @@
         <v>31</v>
       </c>
       <c r="H238" s="2">
-        <v>64.414812</v>
-      </c>
-      <c r="I238" s="2">
-        <v>1.4288547</v>
-      </c>
-      <c r="J238" s="2">
-        <v>105.0576</v>
-      </c>
-      <c r="K238" s="2">
-        <v>99.842319</v>
-      </c>
-      <c r="L238" s="2">
-        <v>24.028923</v>
-      </c>
-      <c r="M238" s="2">
-        <v>59.391567</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
+        <v>0.517950549501519</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="6">
         <v>297</v>
       </c>
@@ -11142,25 +7494,10 @@
         <v>20</v>
       </c>
       <c r="H239" s="2">
-        <v>63.917305</v>
-      </c>
-      <c r="I239" s="2">
-        <v>1.9993606</v>
-      </c>
-      <c r="J239" s="2">
-        <v>110.55342</v>
-      </c>
-      <c r="K239" s="2">
-        <v>111.31343</v>
-      </c>
-      <c r="L239" s="2">
-        <v>29.158763</v>
-      </c>
-      <c r="M239" s="2">
-        <v>38.812701</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
+        <v>-0.35285579692762</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="6">
         <v>299</v>
       </c>
@@ -11183,25 +7520,10 @@
         <v>27</v>
       </c>
       <c r="H240" s="2">
-        <v>64.151345</v>
-      </c>
-      <c r="I240" s="2">
-        <v>1.9119304</v>
-      </c>
-      <c r="J240" s="2">
-        <v>104.73315</v>
-      </c>
-      <c r="K240" s="2">
-        <v>104.36581</v>
-      </c>
-      <c r="L240" s="2">
-        <v>22.146528</v>
-      </c>
-      <c r="M240" s="2">
-        <v>29.711992</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13">
+        <v>0.478695071459777</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="6">
         <v>301</v>
       </c>
@@ -11224,25 +7546,10 @@
         <v>32</v>
       </c>
       <c r="H241" s="2">
-        <v>64.318253</v>
-      </c>
-      <c r="I241" s="2">
-        <v>1.6795871</v>
-      </c>
-      <c r="J241" s="2">
-        <v>107.52735</v>
-      </c>
-      <c r="K241" s="2">
-        <v>106.82526</v>
-      </c>
-      <c r="L241" s="2">
-        <v>15.465102</v>
-      </c>
-      <c r="M241" s="2">
-        <v>18.168572</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13">
+        <v>0.207363723805116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="6">
         <v>303</v>
       </c>
@@ -11265,25 +7572,10 @@
         <v>20</v>
       </c>
       <c r="H242" s="2">
-        <v>64.214868</v>
-      </c>
-      <c r="I242" s="2">
-        <v>2.4309651</v>
-      </c>
-      <c r="J242" s="2">
-        <v>105.9304</v>
-      </c>
-      <c r="K242" s="2">
-        <v>96.837317</v>
-      </c>
-      <c r="L242" s="2">
-        <v>29.370746</v>
-      </c>
-      <c r="M242" s="2">
-        <v>52.020481</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13">
+        <v>0.626422725720111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="6">
         <v>304</v>
       </c>
@@ -11306,25 +7598,10 @@
         <v>27</v>
       </c>
       <c r="H243" s="2">
-        <v>64.34741</v>
-      </c>
-      <c r="I243" s="2">
-        <v>2.0571069</v>
-      </c>
-      <c r="J243" s="2">
-        <v>108.32296</v>
-      </c>
-      <c r="K243" s="2">
-        <v>104.33157</v>
-      </c>
-      <c r="L243" s="2">
-        <v>25.331733</v>
-      </c>
-      <c r="M243" s="2">
-        <v>35.494516</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13">
+        <v>0.219181638991865</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="6">
         <v>305</v>
       </c>
@@ -11347,25 +7624,10 @@
         <v>17</v>
       </c>
       <c r="H244" s="2">
-        <v>64.122679</v>
-      </c>
-      <c r="I244" s="2">
-        <v>1.464234</v>
-      </c>
-      <c r="J244" s="2">
-        <v>108.26881</v>
-      </c>
-      <c r="K244" s="2">
-        <v>107.98522</v>
-      </c>
-      <c r="L244" s="2">
-        <v>23.742925</v>
-      </c>
-      <c r="M244" s="2">
-        <v>29.471035</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13">
+        <v>-0.0788658670812594</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="6">
         <v>306</v>
       </c>
@@ -11388,25 +7650,10 @@
         <v>20</v>
       </c>
       <c r="H245" s="2">
-        <v>64.269608</v>
-      </c>
-      <c r="I245" s="2">
-        <v>2.6211402</v>
-      </c>
-      <c r="J245" s="2">
-        <v>106.72408</v>
-      </c>
-      <c r="K245" s="2">
-        <v>106.20491</v>
-      </c>
-      <c r="L245" s="2">
-        <v>31.023724</v>
-      </c>
-      <c r="M245" s="2">
-        <v>47.898834</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13">
+        <v>0.411337940719229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="6">
         <v>307</v>
       </c>
@@ -11429,25 +7676,10 @@
         <v>23</v>
       </c>
       <c r="H246" s="2">
-        <v>63.998723</v>
-      </c>
-      <c r="I246" s="2">
-        <v>1.3575004</v>
-      </c>
-      <c r="J246" s="2">
-        <v>106.68571</v>
-      </c>
-      <c r="K246" s="2">
-        <v>107.10835</v>
-      </c>
-      <c r="L246" s="2">
-        <v>20.969605</v>
-      </c>
-      <c r="M246" s="2">
-        <v>40.646064</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13">
+        <v>0.0447896033711654</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="6">
         <v>308</v>
       </c>
@@ -11470,22 +7702,7 @@
         <v>20</v>
       </c>
       <c r="H247" s="2">
-        <v>63.754846</v>
-      </c>
-      <c r="I247" s="2">
-        <v>2.3190926</v>
-      </c>
-      <c r="J247" s="2">
-        <v>109.58789</v>
-      </c>
-      <c r="K247" s="2">
-        <v>106.38723</v>
-      </c>
-      <c r="L247" s="2">
-        <v>18.955553</v>
-      </c>
-      <c r="M247" s="2">
-        <v>32.29418</v>
+        <v>-0.063423779440249</v>
       </c>
     </row>
   </sheetData>
